--- a/Data/2015_adv.xlsx
+++ b/Data/2015_adv.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AT0723302\Desktop\NBA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Marian/NBA/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -302,9 +305,6 @@
     <t>Omer Asik</t>
   </si>
   <si>
-    <t>D.J. Augustin</t>
-  </si>
-  <si>
     <t>Jeff Ayres</t>
   </si>
   <si>
@@ -315,9 +315,6 @@
   </si>
   <si>
     <t>Leandro Barbosa</t>
-  </si>
-  <si>
-    <t>J.J. Barea</t>
   </si>
   <si>
     <t>Andrea Bargnani</t>
@@ -803,9 +800,6 @@
     <t>Jorge Gutierrez</t>
   </si>
   <si>
-    <t>P.J. Hairston</t>
-  </si>
-  <si>
     <t>Jordan Hamilton</t>
   </si>
   <si>
@@ -861,9 +855,6 @@
   </si>
   <si>
     <t>Roy Hibbert</t>
-  </si>
-  <si>
-    <t>J.J. Hickson</t>
   </si>
   <si>
     <t>Nene Hilario</t>
@@ -1133,9 +1124,6 @@
     <t>Jason Maxiell</t>
   </si>
   <si>
-    <t>O.J. Mayo</t>
-  </si>
-  <si>
     <t>Luc Mbah a Moute</t>
   </si>
   <si>
@@ -1146,9 +1134,6 @@
   </si>
   <si>
     <t>CJ McCollum</t>
-  </si>
-  <si>
-    <t>K.J. McDaniels</t>
   </si>
   <si>
     <t>Doug McDermott</t>
@@ -1176,9 +1161,6 @@
   </si>
   <si>
     <t>Khris Middleton</t>
-  </si>
-  <si>
-    <t>C.J. Miles</t>
   </si>
   <si>
     <t>Andre Miller</t>
@@ -1346,9 +1328,6 @@
     <t>Phil Pressey</t>
   </si>
   <si>
-    <t>A.J. Price</t>
-  </si>
-  <si>
     <t>Ronnie Price</t>
   </si>
   <si>
@@ -1368,9 +1347,6 @@
   </si>
   <si>
     <t>Zach Randolph</t>
-  </si>
-  <si>
-    <t>J.J. Redick</t>
   </si>
   <si>
     <t>Glen Rice</t>
@@ -1472,9 +1448,6 @@
     <t>Ish Smith</t>
   </si>
   <si>
-    <t>J.R. Smith</t>
-  </si>
-  <si>
     <t>Jason Smith</t>
   </si>
   <si>
@@ -1565,9 +1538,6 @@
     <t>Anthony Tolliver</t>
   </si>
   <si>
-    <t>P.J. Tucker</t>
-  </si>
-  <si>
     <t>Ronny Turiaf</t>
   </si>
   <si>
@@ -1619,12 +1589,6 @@
     <t>Gerald Wallace</t>
   </si>
   <si>
-    <t>T.J. Warren</t>
-  </si>
-  <si>
-    <t>C.J. Watson</t>
-  </si>
-  <si>
     <t>David Wear</t>
   </si>
   <si>
@@ -1647,9 +1611,6 @@
   </si>
   <si>
     <t>Andrew Wiggins</t>
-  </si>
-  <si>
-    <t>C.J. Wilcox</t>
   </si>
   <si>
     <t>Deron Williams</t>
@@ -1708,12 +1669,54 @@
   <si>
     <t>Year</t>
   </si>
+  <si>
+    <t>DJ Augustin</t>
+  </si>
+  <si>
+    <t>JJ Barea</t>
+  </si>
+  <si>
+    <t>PJ Hairston</t>
+  </si>
+  <si>
+    <t>JJ Hickson</t>
+  </si>
+  <si>
+    <t>OJ Mayo</t>
+  </si>
+  <si>
+    <t>KJ McDaniels</t>
+  </si>
+  <si>
+    <t>CJ Miles</t>
+  </si>
+  <si>
+    <t>AJ Price</t>
+  </si>
+  <si>
+    <t>JJ Redick</t>
+  </si>
+  <si>
+    <t>JR Smith</t>
+  </si>
+  <si>
+    <t>PJ Tucker</t>
+  </si>
+  <si>
+    <t>TJ Warren</t>
+  </si>
+  <si>
+    <t>CJ Watson</t>
+  </si>
+  <si>
+    <t>CJ Wilcox</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1754,7 +1757,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2035,17 +2038,17 @@
   <dimension ref="A1:AA652"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2126,7 +2129,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2015</v>
       </c>
@@ -2209,7 +2212,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2015</v>
       </c>
@@ -2292,7 +2295,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2015</v>
       </c>
@@ -2375,7 +2378,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2015</v>
       </c>
@@ -2458,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2015</v>
       </c>
@@ -2541,7 +2544,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2015</v>
       </c>
@@ -2624,7 +2627,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2015</v>
       </c>
@@ -2707,7 +2710,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2015</v>
       </c>
@@ -2790,7 +2793,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2015</v>
       </c>
@@ -2873,7 +2876,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2015</v>
       </c>
@@ -2956,7 +2959,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2015</v>
       </c>
@@ -3039,7 +3042,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2015</v>
       </c>
@@ -3122,7 +3125,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2015</v>
       </c>
@@ -3205,7 +3208,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2015</v>
       </c>
@@ -3288,7 +3291,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2015</v>
       </c>
@@ -3371,7 +3374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2015</v>
       </c>
@@ -3454,7 +3457,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2015</v>
       </c>
@@ -3537,7 +3540,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2015</v>
       </c>
@@ -3620,7 +3623,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2015</v>
       </c>
@@ -3703,7 +3706,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2015</v>
       </c>
@@ -3786,7 +3789,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2015</v>
       </c>
@@ -3869,7 +3872,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2015</v>
       </c>
@@ -3952,7 +3955,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2015</v>
       </c>
@@ -4035,7 +4038,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>2015</v>
       </c>
@@ -4118,7 +4121,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>2015</v>
       </c>
@@ -4201,7 +4204,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>2015</v>
       </c>
@@ -4284,7 +4287,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>2015</v>
       </c>
@@ -4367,7 +4370,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>2015</v>
       </c>
@@ -4450,12 +4453,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>2015</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>547</v>
       </c>
       <c r="C30" t="s">
         <v>49</v>
@@ -4533,12 +4536,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>2015</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>547</v>
       </c>
       <c r="C31" t="s">
         <v>49</v>
@@ -4616,12 +4619,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>2015</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>547</v>
       </c>
       <c r="C32" t="s">
         <v>49</v>
@@ -4699,12 +4702,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>2015</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
         <v>26</v>
@@ -4782,12 +4785,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>2015</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
         <v>39</v>
@@ -4865,12 +4868,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>2015</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
         <v>26</v>
@@ -4948,12 +4951,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>2015</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -5031,12 +5034,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>2015</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>548</v>
       </c>
       <c r="C37" t="s">
         <v>49</v>
@@ -5114,12 +5117,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>2015</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C38" t="s">
         <v>30</v>
@@ -5197,12 +5200,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>2015</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C39" t="s">
         <v>39</v>
@@ -5280,12 +5283,12 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>2015</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C40" t="s">
         <v>39</v>
@@ -5363,12 +5366,12 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>2015</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C41" t="s">
         <v>30</v>
@@ -5446,12 +5449,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>2015</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -5529,12 +5532,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>2015</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -5612,12 +5615,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>2015</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -5695,12 +5698,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>2015</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C45" t="s">
         <v>26</v>
@@ -5778,12 +5781,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>2015</v>
       </c>
       <c r="B46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C46" t="s">
         <v>39</v>
@@ -5861,12 +5864,12 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>2015</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C47" t="s">
         <v>49</v>
@@ -5944,12 +5947,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>2015</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C48" t="s">
         <v>30</v>
@@ -6027,12 +6030,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>2015</v>
       </c>
       <c r="B49" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -6110,12 +6113,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>2015</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -6193,12 +6196,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="51" spans="1:27">
+    <row r="51" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>2015</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C51" t="s">
         <v>26</v>
@@ -6276,12 +6279,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="52" spans="1:27">
+    <row r="52" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>2015</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -6359,12 +6362,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" spans="1:27">
+    <row r="53" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>2015</v>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C53" t="s">
         <v>26</v>
@@ -6433,12 +6436,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:27">
+    <row r="54" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>2015</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C54" t="s">
         <v>26</v>
@@ -6516,12 +6519,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="55" spans="1:27">
+    <row r="55" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>2015</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C55" t="s">
         <v>49</v>
@@ -6599,12 +6602,12 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="56" spans="1:27">
+    <row r="56" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>2015</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C56" t="s">
         <v>30</v>
@@ -6682,12 +6685,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:27">
+    <row r="57" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>2015</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C57" t="s">
         <v>30</v>
@@ -6765,12 +6768,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="58" spans="1:27">
+    <row r="58" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>2015</v>
       </c>
       <c r="B58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C58" t="s">
         <v>30</v>
@@ -6848,12 +6851,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="59" spans="1:27">
+    <row r="59" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>2015</v>
       </c>
       <c r="B59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C59" t="s">
         <v>30</v>
@@ -6931,12 +6934,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="60" spans="1:27">
+    <row r="60" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>2015</v>
       </c>
       <c r="B60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C60" t="s">
         <v>30</v>
@@ -7014,12 +7017,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="61" spans="1:27">
+    <row r="61" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>2015</v>
       </c>
       <c r="B61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C61" t="s">
         <v>26</v>
@@ -7097,12 +7100,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="62" spans="1:27">
+    <row r="62" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>2015</v>
       </c>
       <c r="B62" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C62" t="s">
         <v>49</v>
@@ -7180,12 +7183,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:27">
+    <row r="63" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>2015</v>
       </c>
       <c r="B63" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C63" t="s">
         <v>49</v>
@@ -7263,12 +7266,12 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="64" spans="1:27">
+    <row r="64" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>2015</v>
       </c>
       <c r="B64" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -7346,12 +7349,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="65" spans="1:27">
+    <row r="65" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>2015</v>
       </c>
       <c r="B65" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C65" t="s">
         <v>39</v>
@@ -7429,12 +7432,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="66" spans="1:27">
+    <row r="66" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>2015</v>
       </c>
       <c r="B66" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C66" t="s">
         <v>30</v>
@@ -7512,12 +7515,12 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="67" spans="1:27">
+    <row r="67" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>2015</v>
       </c>
       <c r="B67" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C67" t="s">
         <v>26</v>
@@ -7595,12 +7598,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="68" spans="1:27">
+    <row r="68" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>2015</v>
       </c>
       <c r="B68" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C68" t="s">
         <v>26</v>
@@ -7678,12 +7681,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="69" spans="1:27">
+    <row r="69" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>2015</v>
       </c>
       <c r="B69" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C69" t="s">
         <v>26</v>
@@ -7761,12 +7764,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="70" spans="1:27">
+    <row r="70" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>2015</v>
       </c>
       <c r="B70" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C70" t="s">
         <v>30</v>
@@ -7844,12 +7847,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="71" spans="1:27">
+    <row r="71" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>2015</v>
       </c>
       <c r="B71" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -7927,12 +7930,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="72" spans="1:27">
+    <row r="72" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>2015</v>
       </c>
       <c r="B72" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C72" t="s">
         <v>30</v>
@@ -8010,12 +8013,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="73" spans="1:27">
+    <row r="73" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>2015</v>
       </c>
       <c r="B73" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C73" t="s">
         <v>39</v>
@@ -8093,12 +8096,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" spans="1:27">
+    <row r="74" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>2015</v>
       </c>
       <c r="B74" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C74" t="s">
         <v>39</v>
@@ -8176,12 +8179,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="75" spans="1:27">
+    <row r="75" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>2015</v>
       </c>
       <c r="B75" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C75" t="s">
         <v>39</v>
@@ -8259,12 +8262,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="76" spans="1:27">
+    <row r="76" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>2015</v>
       </c>
       <c r="B76" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C76" t="s">
         <v>49</v>
@@ -8342,12 +8345,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="77" spans="1:27">
+    <row r="77" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>2015</v>
       </c>
       <c r="B77" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -8425,12 +8428,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="78" spans="1:27">
+    <row r="78" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>2015</v>
       </c>
       <c r="B78" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C78" t="s">
         <v>49</v>
@@ -8508,12 +8511,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="79" spans="1:27">
+    <row r="79" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>2015</v>
       </c>
       <c r="B79" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -8591,12 +8594,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="80" spans="1:27">
+    <row r="80" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>2015</v>
       </c>
       <c r="B80" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -8674,12 +8677,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="81" spans="1:27">
+    <row r="81" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>2015</v>
       </c>
       <c r="B81" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -8757,12 +8760,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="82" spans="1:27">
+    <row r="82" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>2015</v>
       </c>
       <c r="B82" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C82" t="s">
         <v>39</v>
@@ -8840,12 +8843,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="83" spans="1:27">
+    <row r="83" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>2015</v>
       </c>
       <c r="B83" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C83" t="s">
         <v>39</v>
@@ -8923,12 +8926,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="84" spans="1:27">
+    <row r="84" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>2015</v>
       </c>
       <c r="B84" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C84" t="s">
         <v>39</v>
@@ -9006,12 +9009,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:27">
+    <row r="85" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>2015</v>
       </c>
       <c r="B85" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C85" t="s">
         <v>39</v>
@@ -9089,12 +9092,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="86" spans="1:27">
+    <row r="86" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>2015</v>
       </c>
       <c r="B86" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C86" t="s">
         <v>49</v>
@@ -9172,12 +9175,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="87" spans="1:27">
+    <row r="87" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>2015</v>
       </c>
       <c r="B87" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -9255,12 +9258,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="88" spans="1:27">
+    <row r="88" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>2015</v>
       </c>
       <c r="B88" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C88" t="s">
         <v>39</v>
@@ -9338,12 +9341,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="89" spans="1:27">
+    <row r="89" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>2015</v>
       </c>
       <c r="B89" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -9421,12 +9424,12 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="90" spans="1:27">
+    <row r="90" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>2015</v>
       </c>
       <c r="B90" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C90" t="s">
         <v>39</v>
@@ -9504,12 +9507,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="91" spans="1:27">
+    <row r="91" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>2015</v>
       </c>
       <c r="B91" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C91" t="s">
         <v>49</v>
@@ -9587,12 +9590,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="92" spans="1:27">
+    <row r="92" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>2015</v>
       </c>
       <c r="B92" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -9670,12 +9673,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="93" spans="1:27">
+    <row r="93" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>2015</v>
       </c>
       <c r="B93" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C93" t="s">
         <v>39</v>
@@ -9753,12 +9756,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="94" spans="1:27">
+    <row r="94" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>2015</v>
       </c>
       <c r="B94" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -9836,12 +9839,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="95" spans="1:27">
+    <row r="95" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>2015</v>
       </c>
       <c r="B95" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C95" t="s">
         <v>49</v>
@@ -9919,12 +9922,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="96" spans="1:27">
+    <row r="96" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>2015</v>
       </c>
       <c r="B96" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -10002,12 +10005,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="97" spans="1:27">
+    <row r="97" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>2015</v>
       </c>
       <c r="B97" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C97" t="s">
         <v>49</v>
@@ -10085,12 +10088,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="98" spans="1:27">
+    <row r="98" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>2015</v>
       </c>
       <c r="B98" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C98" t="s">
         <v>49</v>
@@ -10168,12 +10171,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:27">
+    <row r="99" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>2015</v>
       </c>
       <c r="B99" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C99" t="s">
         <v>49</v>
@@ -10251,12 +10254,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:27">
+    <row r="100" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>2015</v>
       </c>
       <c r="B100" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C100" t="s">
         <v>30</v>
@@ -10334,12 +10337,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="101" spans="1:27">
+    <row r="101" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>2015</v>
       </c>
       <c r="B101" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C101" t="s">
         <v>39</v>
@@ -10417,12 +10420,12 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="102" spans="1:27">
+    <row r="102" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>2015</v>
       </c>
       <c r="B102" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -10500,12 +10503,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="103" spans="1:27">
+    <row r="103" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>2015</v>
       </c>
       <c r="B103" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C103" t="s">
         <v>49</v>
@@ -10583,12 +10586,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="104" spans="1:27">
+    <row r="104" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>2015</v>
       </c>
       <c r="B104" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C104" t="s">
         <v>49</v>
@@ -10666,12 +10669,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="105" spans="1:27">
+    <row r="105" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>2015</v>
       </c>
       <c r="B105" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C105" t="s">
         <v>49</v>
@@ -10749,12 +10752,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="106" spans="1:27">
+    <row r="106" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>2015</v>
       </c>
       <c r="B106" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C106" t="s">
         <v>39</v>
@@ -10832,12 +10835,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="107" spans="1:27">
+    <row r="107" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>2015</v>
       </c>
       <c r="B107" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C107" t="s">
         <v>49</v>
@@ -10915,12 +10918,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="108" spans="1:27">
+    <row r="108" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>2015</v>
       </c>
       <c r="B108" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C108" t="s">
         <v>30</v>
@@ -10998,12 +11001,12 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="109" spans="1:27">
+    <row r="109" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>2015</v>
       </c>
       <c r="B109" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C109" t="s">
         <v>39</v>
@@ -11081,12 +11084,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="110" spans="1:27">
+    <row r="110" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>2015</v>
       </c>
       <c r="B110" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C110" t="s">
         <v>49</v>
@@ -11164,12 +11167,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:27">
+    <row r="111" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>2015</v>
       </c>
       <c r="B111" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -11247,12 +11250,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="112" spans="1:27">
+    <row r="112" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>2015</v>
       </c>
       <c r="B112" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C112" t="s">
         <v>26</v>
@@ -11330,12 +11333,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="113" spans="1:27">
+    <row r="113" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>2015</v>
       </c>
       <c r="B113" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -11413,12 +11416,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:27">
+    <row r="114" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>2015</v>
       </c>
       <c r="B114" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -11496,12 +11499,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="115" spans="1:27">
+    <row r="115" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>2015</v>
       </c>
       <c r="B115" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -11579,12 +11582,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:27">
+    <row r="116" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>2015</v>
       </c>
       <c r="B116" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C116" t="s">
         <v>49</v>
@@ -11662,12 +11665,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="117" spans="1:27">
+    <row r="117" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>2015</v>
       </c>
       <c r="B117" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C117" t="s">
         <v>39</v>
@@ -11745,12 +11748,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:27">
+    <row r="118" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>2015</v>
       </c>
       <c r="B118" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C118" t="s">
         <v>49</v>
@@ -11828,12 +11831,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="119" spans="1:27">
+    <row r="119" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>2015</v>
       </c>
       <c r="B119" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C119" t="s">
         <v>49</v>
@@ -11911,12 +11914,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="120" spans="1:27">
+    <row r="120" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>2015</v>
       </c>
       <c r="B120" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C120" t="s">
         <v>49</v>
@@ -11994,12 +11997,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="121" spans="1:27">
+    <row r="121" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>2015</v>
       </c>
       <c r="B121" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C121" t="s">
         <v>49</v>
@@ -12077,12 +12080,12 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="122" spans="1:27">
+    <row r="122" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>2015</v>
       </c>
       <c r="B122" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C122" t="s">
         <v>26</v>
@@ -12160,12 +12163,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="123" spans="1:27">
+    <row r="123" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>2015</v>
       </c>
       <c r="B123" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C123" t="s">
         <v>49</v>
@@ -12243,12 +12246,12 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="124" spans="1:27">
+    <row r="124" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>2015</v>
       </c>
       <c r="B124" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C124" t="s">
         <v>30</v>
@@ -12326,12 +12329,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:27">
+    <row r="125" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>2015</v>
       </c>
       <c r="B125" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C125" t="s">
         <v>39</v>
@@ -12409,12 +12412,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="126" spans="1:27">
+    <row r="126" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>2015</v>
       </c>
       <c r="B126" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C126" t="s">
         <v>49</v>
@@ -12492,12 +12495,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="127" spans="1:27">
+    <row r="127" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>2015</v>
       </c>
       <c r="B127" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C127" t="s">
         <v>30</v>
@@ -12575,12 +12578,12 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="128" spans="1:27">
+    <row r="128" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>2015</v>
       </c>
       <c r="B128" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C128" t="s">
         <v>39</v>
@@ -12658,12 +12661,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:27">
+    <row r="129" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>2015</v>
       </c>
       <c r="B129" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -12741,12 +12744,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="130" spans="1:27">
+    <row r="130" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>2015</v>
       </c>
       <c r="B130" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12824,12 +12827,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="131" spans="1:27">
+    <row r="131" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>2015</v>
       </c>
       <c r="B131" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C131" t="s">
         <v>39</v>
@@ -12907,12 +12910,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:27">
+    <row r="132" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>2015</v>
       </c>
       <c r="B132" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C132" t="s">
         <v>39</v>
@@ -12990,12 +12993,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="133" spans="1:27">
+    <row r="133" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>2015</v>
       </c>
       <c r="B133" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C133" t="s">
         <v>39</v>
@@ -13073,12 +13076,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="134" spans="1:27">
+    <row r="134" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>2015</v>
       </c>
       <c r="B134" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C134" t="s">
         <v>26</v>
@@ -13156,12 +13159,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="135" spans="1:27">
+    <row r="135" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>2015</v>
       </c>
       <c r="B135" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -13239,12 +13242,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="136" spans="1:27">
+    <row r="136" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>2015</v>
       </c>
       <c r="B136" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C136" t="s">
         <v>49</v>
@@ -13322,12 +13325,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:27">
+    <row r="137" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>2015</v>
       </c>
       <c r="B137" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C137" t="s">
         <v>49</v>
@@ -13405,12 +13408,12 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="138" spans="1:27">
+    <row r="138" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>2015</v>
       </c>
       <c r="B138" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C138" t="s">
         <v>30</v>
@@ -13488,12 +13491,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:27">
+    <row r="139" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>2015</v>
       </c>
       <c r="B139" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -13571,12 +13574,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="140" spans="1:27">
+    <row r="140" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>2015</v>
       </c>
       <c r="B140" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -13654,12 +13657,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="141" spans="1:27">
+    <row r="141" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>2015</v>
       </c>
       <c r="B141" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13737,12 +13740,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="142" spans="1:27">
+    <row r="142" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>2015</v>
       </c>
       <c r="B142" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13820,12 +13823,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:27">
+    <row r="143" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>2015</v>
       </c>
       <c r="B143" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C143" t="s">
         <v>39</v>
@@ -13903,12 +13906,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:27">
+    <row r="144" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>2015</v>
       </c>
       <c r="B144" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C144" t="s">
         <v>39</v>
@@ -13986,12 +13989,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:27">
+    <row r="145" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>2015</v>
       </c>
       <c r="B145" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C145" t="s">
         <v>39</v>
@@ -14069,12 +14072,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:27">
+    <row r="146" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>2015</v>
       </c>
       <c r="B146" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C146" t="s">
         <v>26</v>
@@ -14152,12 +14155,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="147" spans="1:27">
+    <row r="147" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>2015</v>
       </c>
       <c r="B147" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C147" t="s">
         <v>26</v>
@@ -14235,12 +14238,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="148" spans="1:27">
+    <row r="148" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>2015</v>
       </c>
       <c r="B148" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C148" t="s">
         <v>26</v>
@@ -14318,12 +14321,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="149" spans="1:27">
+    <row r="149" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>2015</v>
       </c>
       <c r="B149" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C149" t="s">
         <v>26</v>
@@ -14401,12 +14404,12 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="150" spans="1:27">
+    <row r="150" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>2015</v>
       </c>
       <c r="B150" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C150" t="s">
         <v>26</v>
@@ -14484,12 +14487,12 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="151" spans="1:27">
+    <row r="151" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>2015</v>
       </c>
       <c r="B151" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C151" t="s">
         <v>26</v>
@@ -14567,12 +14570,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="152" spans="1:27">
+    <row r="152" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>2015</v>
       </c>
       <c r="B152" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -14650,12 +14653,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="153" spans="1:27">
+    <row r="153" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>2015</v>
       </c>
       <c r="B153" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C153" t="s">
         <v>39</v>
@@ -14733,12 +14736,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="154" spans="1:27">
+    <row r="154" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>2015</v>
       </c>
       <c r="B154" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C154" t="s">
         <v>39</v>
@@ -14816,12 +14819,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="155" spans="1:27">
+    <row r="155" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>2015</v>
       </c>
       <c r="B155" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C155" t="s">
         <v>39</v>
@@ -14899,12 +14902,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:27">
+    <row r="156" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>2015</v>
       </c>
       <c r="B156" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C156" t="s">
         <v>30</v>
@@ -14982,12 +14985,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="157" spans="1:27">
+    <row r="157" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>2015</v>
       </c>
       <c r="B157" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -15065,12 +15068,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="158" spans="1:27">
+    <row r="158" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>2015</v>
       </c>
       <c r="B158" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C158" t="s">
         <v>39</v>
@@ -15148,12 +15151,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="159" spans="1:27">
+    <row r="159" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>2015</v>
       </c>
       <c r="B159" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -15231,12 +15234,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="160" spans="1:27">
+    <row r="160" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>2015</v>
       </c>
       <c r="B160" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C160" t="s">
         <v>26</v>
@@ -15314,12 +15317,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:27">
+    <row r="161" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>2015</v>
       </c>
       <c r="B161" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C161" t="s">
         <v>30</v>
@@ -15397,12 +15400,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="162" spans="1:27">
+    <row r="162" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>2015</v>
       </c>
       <c r="B162" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C162" t="s">
         <v>49</v>
@@ -15480,12 +15483,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="163" spans="1:27">
+    <row r="163" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>2015</v>
       </c>
       <c r="B163" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C163" t="s">
         <v>26</v>
@@ -15563,12 +15566,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="164" spans="1:27">
+    <row r="164" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>2015</v>
       </c>
       <c r="B164" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15646,12 +15649,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:27">
+    <row r="165" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>2015</v>
       </c>
       <c r="B165" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15729,12 +15732,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="166" spans="1:27">
+    <row r="166" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>2015</v>
       </c>
       <c r="B166" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C166" t="s">
         <v>62</v>
@@ -15812,12 +15815,12 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="167" spans="1:27">
+    <row r="167" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>2015</v>
       </c>
       <c r="B167" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15895,12 +15898,12 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="168" spans="1:27">
+    <row r="168" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>2015</v>
       </c>
       <c r="B168" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C168" t="s">
         <v>49</v>
@@ -15978,12 +15981,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="169" spans="1:27">
+    <row r="169" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>2015</v>
       </c>
       <c r="B169" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -16061,12 +16064,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="170" spans="1:27">
+    <row r="170" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>2015</v>
       </c>
       <c r="B170" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -16144,12 +16147,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:27">
+    <row r="171" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>2015</v>
       </c>
       <c r="B171" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -16227,12 +16230,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="172" spans="1:27">
+    <row r="172" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>2015</v>
       </c>
       <c r="B172" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C172" t="s">
         <v>49</v>
@@ -16310,12 +16313,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="173" spans="1:27">
+    <row r="173" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>2015</v>
       </c>
       <c r="B173" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C173" t="s">
         <v>30</v>
@@ -16393,12 +16396,12 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="174" spans="1:27">
+    <row r="174" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>2015</v>
       </c>
       <c r="B174" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -16476,12 +16479,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:27">
+    <row r="175" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>2015</v>
       </c>
       <c r="B175" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C175" t="s">
         <v>30</v>
@@ -16559,12 +16562,12 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="176" spans="1:27">
+    <row r="176" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>2015</v>
       </c>
       <c r="B176" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C176" t="s">
         <v>39</v>
@@ -16642,12 +16645,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="177" spans="1:27">
+    <row r="177" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>2015</v>
       </c>
       <c r="B177" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C177" t="s">
         <v>39</v>
@@ -16725,12 +16728,12 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="178" spans="1:27">
+    <row r="178" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>2015</v>
       </c>
       <c r="B178" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C178" t="s">
         <v>39</v>
@@ -16808,12 +16811,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="179" spans="1:27">
+    <row r="179" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>2015</v>
       </c>
       <c r="B179" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16891,12 +16894,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="180" spans="1:27">
+    <row r="180" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>2015</v>
       </c>
       <c r="B180" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16974,12 +16977,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="181" spans="1:27">
+    <row r="181" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>2015</v>
       </c>
       <c r="B181" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C181" t="s">
         <v>39</v>
@@ -17057,12 +17060,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="182" spans="1:27">
+    <row r="182" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>2015</v>
       </c>
       <c r="B182" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C182" t="s">
         <v>49</v>
@@ -17140,12 +17143,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="183" spans="1:27">
+    <row r="183" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>2015</v>
       </c>
       <c r="B183" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C183" t="s">
         <v>49</v>
@@ -17223,12 +17226,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="184" spans="1:27">
+    <row r="184" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>2015</v>
       </c>
       <c r="B184" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C184" t="s">
         <v>49</v>
@@ -17306,12 +17309,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="185" spans="1:27">
+    <row r="185" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>2015</v>
       </c>
       <c r="B185" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C185" t="s">
         <v>39</v>
@@ -17389,12 +17392,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="186" spans="1:27">
+    <row r="186" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>2015</v>
       </c>
       <c r="B186" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C186" t="s">
         <v>26</v>
@@ -17472,12 +17475,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="187" spans="1:27">
+    <row r="187" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>2015</v>
       </c>
       <c r="B187" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17555,12 +17558,12 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="188" spans="1:27">
+    <row r="188" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>2015</v>
       </c>
       <c r="B188" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C188" t="s">
         <v>49</v>
@@ -17638,12 +17641,12 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="189" spans="1:27">
+    <row r="189" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>2015</v>
       </c>
       <c r="B189" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C189" t="s">
         <v>30</v>
@@ -17721,12 +17724,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:27">
+    <row r="190" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>2015</v>
       </c>
       <c r="B190" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C190" t="s">
         <v>26</v>
@@ -17804,12 +17807,12 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="191" spans="1:27">
+    <row r="191" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>2015</v>
       </c>
       <c r="B191" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C191" t="s">
         <v>49</v>
@@ -17887,12 +17890,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:27">
+    <row r="192" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>2015</v>
       </c>
       <c r="B192" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C192" t="s">
         <v>26</v>
@@ -17970,12 +17973,12 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="193" spans="1:27">
+    <row r="193" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>2015</v>
       </c>
       <c r="B193" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C193" t="s">
         <v>49</v>
@@ -18053,12 +18056,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="194" spans="1:27">
+    <row r="194" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>2015</v>
       </c>
       <c r="B194" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C194" t="s">
         <v>39</v>
@@ -18136,12 +18139,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:27">
+    <row r="195" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>2015</v>
       </c>
       <c r="B195" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -18219,12 +18222,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="196" spans="1:27">
+    <row r="196" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>2015</v>
       </c>
       <c r="B196" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -18302,12 +18305,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="197" spans="1:27">
+    <row r="197" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>2015</v>
       </c>
       <c r="B197" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18385,12 +18388,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:27">
+    <row r="198" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>2015</v>
       </c>
       <c r="B198" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C198" t="s">
         <v>49</v>
@@ -18468,12 +18471,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="199" spans="1:27">
+    <row r="199" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>2015</v>
       </c>
       <c r="B199" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C199" t="s">
         <v>49</v>
@@ -18551,12 +18554,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="200" spans="1:27">
+    <row r="200" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>2015</v>
       </c>
       <c r="B200" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C200" t="s">
         <v>49</v>
@@ -18634,12 +18637,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:27">
+    <row r="201" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>2015</v>
       </c>
       <c r="B201" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C201" t="s">
         <v>49</v>
@@ -18717,12 +18720,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="202" spans="1:27">
+    <row r="202" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>2015</v>
       </c>
       <c r="B202" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C202" t="s">
         <v>30</v>
@@ -18800,12 +18803,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:27">
+    <row r="203" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>2015</v>
       </c>
       <c r="B203" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C203" t="s">
         <v>26</v>
@@ -18883,12 +18886,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="204" spans="1:27">
+    <row r="204" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>2015</v>
       </c>
       <c r="B204" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C204" t="s">
         <v>39</v>
@@ -18966,12 +18969,12 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="205" spans="1:27">
+    <row r="205" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>2015</v>
       </c>
       <c r="B205" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C205" t="s">
         <v>49</v>
@@ -19049,12 +19052,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="206" spans="1:27">
+    <row r="206" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>2015</v>
       </c>
       <c r="B206" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C206" t="s">
         <v>39</v>
@@ -19132,12 +19135,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="207" spans="1:27">
+    <row r="207" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>2015</v>
       </c>
       <c r="B207" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C207" t="s">
         <v>26</v>
@@ -19215,12 +19218,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="208" spans="1:27">
+    <row r="208" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>2015</v>
       </c>
       <c r="B208" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C208" t="s">
         <v>26</v>
@@ -19298,12 +19301,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="209" spans="1:27">
+    <row r="209" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>2015</v>
       </c>
       <c r="B209" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C209" t="s">
         <v>26</v>
@@ -19381,12 +19384,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="210" spans="1:27">
+    <row r="210" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>2015</v>
       </c>
       <c r="B210" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C210" t="s">
         <v>30</v>
@@ -19464,12 +19467,12 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="211" spans="1:27">
+    <row r="211" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>2015</v>
       </c>
       <c r="B211" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C211" t="s">
         <v>26</v>
@@ -19547,12 +19550,12 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="212" spans="1:27">
+    <row r="212" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>2015</v>
       </c>
       <c r="B212" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C212" t="s">
         <v>39</v>
@@ -19630,12 +19633,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="213" spans="1:27">
+    <row r="213" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>2015</v>
       </c>
       <c r="B213" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C213" t="s">
         <v>39</v>
@@ -19713,12 +19716,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="214" spans="1:27">
+    <row r="214" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>2015</v>
       </c>
       <c r="B214" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C214" t="s">
         <v>39</v>
@@ -19796,12 +19799,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="215" spans="1:27">
+    <row r="215" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>2015</v>
       </c>
       <c r="B215" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C215" t="s">
         <v>39</v>
@@ -19879,12 +19882,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:27">
+    <row r="216" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>2015</v>
       </c>
       <c r="B216" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C216" t="s">
         <v>39</v>
@@ -19962,12 +19965,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:27">
+    <row r="217" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>2015</v>
       </c>
       <c r="B217" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C217" t="s">
         <v>26</v>
@@ -20045,12 +20048,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:27">
+    <row r="218" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>2015</v>
       </c>
       <c r="B218" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -20128,12 +20131,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="219" spans="1:27">
+    <row r="219" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>2015</v>
       </c>
       <c r="B219" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C219" t="s">
         <v>30</v>
@@ -20211,12 +20214,12 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="220" spans="1:27">
+    <row r="220" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>2015</v>
       </c>
       <c r="B220" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C220" t="s">
         <v>26</v>
@@ -20294,12 +20297,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="221" spans="1:27">
+    <row r="221" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>2015</v>
       </c>
       <c r="B221" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20377,12 +20380,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="222" spans="1:27">
+    <row r="222" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>2015</v>
       </c>
       <c r="B222" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C222" t="s">
         <v>26</v>
@@ -20460,12 +20463,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="223" spans="1:27">
+    <row r="223" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>2015</v>
       </c>
       <c r="B223" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20543,12 +20546,12 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="224" spans="1:27">
+    <row r="224" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>2015</v>
       </c>
       <c r="B224" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C224" t="s">
         <v>26</v>
@@ -20626,12 +20629,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="225" spans="1:27">
+    <row r="225" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>2015</v>
       </c>
       <c r="B225" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20709,12 +20712,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="226" spans="1:27">
+    <row r="226" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>2015</v>
       </c>
       <c r="B226" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C226" t="s">
         <v>30</v>
@@ -20792,12 +20795,12 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="227" spans="1:27">
+    <row r="227" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>2015</v>
       </c>
       <c r="B227" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C227" t="s">
         <v>39</v>
@@ -20875,12 +20878,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="228" spans="1:27">
+    <row r="228" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>2015</v>
       </c>
       <c r="B228" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C228" t="s">
         <v>39</v>
@@ -20958,12 +20961,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="229" spans="1:27">
+    <row r="229" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>2015</v>
       </c>
       <c r="B229" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -21041,12 +21044,12 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="230" spans="1:27">
+    <row r="230" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>2015</v>
       </c>
       <c r="B230" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C230" t="s">
         <v>26</v>
@@ -21124,12 +21127,12 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="231" spans="1:27">
+    <row r="231" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>2015</v>
       </c>
       <c r="B231" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C231" t="s">
         <v>49</v>
@@ -21207,12 +21210,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="232" spans="1:27">
+    <row r="232" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>2015</v>
       </c>
       <c r="B232" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21290,12 +21293,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="233" spans="1:27">
+    <row r="233" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>2015</v>
       </c>
       <c r="B233" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C233" t="s">
         <v>26</v>
@@ -21373,12 +21376,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:27">
+    <row r="234" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>2015</v>
       </c>
       <c r="B234" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C234" t="s">
         <v>26</v>
@@ -21456,12 +21459,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:27">
+    <row r="235" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>2015</v>
       </c>
       <c r="B235" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C235" t="s">
         <v>26</v>
@@ -21539,12 +21542,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:27">
+    <row r="236" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>2015</v>
       </c>
       <c r="B236" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C236" t="s">
         <v>39</v>
@@ -21622,12 +21625,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="237" spans="1:27">
+    <row r="237" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>2015</v>
       </c>
       <c r="B237" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C237" t="s">
         <v>39</v>
@@ -21705,12 +21708,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="238" spans="1:27">
+    <row r="238" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>2015</v>
       </c>
       <c r="B238" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C238" t="s">
         <v>39</v>
@@ -21788,12 +21791,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="239" spans="1:27">
+    <row r="239" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>2015</v>
       </c>
       <c r="B239" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21871,12 +21874,12 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="240" spans="1:27">
+    <row r="240" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>2015</v>
       </c>
       <c r="B240" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C240" t="s">
         <v>26</v>
@@ -21954,12 +21957,12 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="241" spans="1:27">
+    <row r="241" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>2015</v>
       </c>
       <c r="B241" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C241" t="s">
         <v>49</v>
@@ -22037,12 +22040,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:27">
+    <row r="242" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>2015</v>
       </c>
       <c r="B242" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C242" t="s">
         <v>49</v>
@@ -22120,12 +22123,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:27">
+    <row r="243" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>2015</v>
       </c>
       <c r="B243" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C243" t="s">
         <v>49</v>
@@ -22203,12 +22206,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:27">
+    <row r="244" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>2015</v>
       </c>
       <c r="B244" t="s">
-        <v>259</v>
+        <v>549</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22286,12 +22289,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="245" spans="1:27">
+    <row r="245" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>2015</v>
       </c>
       <c r="B245" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C245" t="s">
         <v>39</v>
@@ -22369,12 +22372,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:27">
+    <row r="246" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>2015</v>
       </c>
       <c r="B246" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C246" t="s">
         <v>30</v>
@@ -22452,12 +22455,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="247" spans="1:27">
+    <row r="247" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>2015</v>
       </c>
       <c r="B247" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C247" t="s">
         <v>30</v>
@@ -22535,12 +22538,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:27">
+    <row r="248" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>2015</v>
       </c>
       <c r="B248" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C248" t="s">
         <v>30</v>
@@ -22618,12 +22621,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="249" spans="1:27">
+    <row r="249" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>2015</v>
       </c>
       <c r="B249" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C249" t="s">
         <v>26</v>
@@ -22701,12 +22704,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="250" spans="1:27">
+    <row r="250" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>2015</v>
       </c>
       <c r="B250" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22784,12 +22787,12 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="251" spans="1:27">
+    <row r="251" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>2015</v>
       </c>
       <c r="B251" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22867,12 +22870,12 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="252" spans="1:27">
+    <row r="252" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>2015</v>
       </c>
       <c r="B252" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C252" t="s">
         <v>39</v>
@@ -22950,12 +22953,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="253" spans="1:27">
+    <row r="253" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>2015</v>
       </c>
       <c r="B253" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C253" t="s">
         <v>49</v>
@@ -23033,12 +23036,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="254" spans="1:27">
+    <row r="254" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>2015</v>
       </c>
       <c r="B254" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23116,12 +23119,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="255" spans="1:27">
+    <row r="255" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>2015</v>
       </c>
       <c r="B255" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23199,12 +23202,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="256" spans="1:27">
+    <row r="256" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>2015</v>
       </c>
       <c r="B256" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C256" t="s">
         <v>39</v>
@@ -23282,12 +23285,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:27">
+    <row r="257" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>2015</v>
       </c>
       <c r="B257" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C257" t="s">
         <v>26</v>
@@ -23365,12 +23368,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="258" spans="1:27">
+    <row r="258" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>2015</v>
       </c>
       <c r="B258" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C258" t="s">
         <v>26</v>
@@ -23448,12 +23451,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:27">
+    <row r="259" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>2015</v>
       </c>
       <c r="B259" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C259" t="s">
         <v>30</v>
@@ -23531,12 +23534,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="260" spans="1:27">
+    <row r="260" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>2015</v>
       </c>
       <c r="B260" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C260" t="s">
         <v>39</v>
@@ -23614,12 +23617,12 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="261" spans="1:27">
+    <row r="261" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>2015</v>
       </c>
       <c r="B261" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C261" t="s">
         <v>30</v>
@@ -23697,12 +23700,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="262" spans="1:27">
+    <row r="262" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>2015</v>
       </c>
       <c r="B262" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23780,12 +23783,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="263" spans="1:27">
+    <row r="263" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>2015</v>
       </c>
       <c r="B263" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C263" t="s">
         <v>39</v>
@@ -23863,12 +23866,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="264" spans="1:27">
+    <row r="264" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>2015</v>
       </c>
       <c r="B264" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C264" t="s">
         <v>30</v>
@@ -23946,12 +23949,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="265" spans="1:27">
+    <row r="265" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>2015</v>
       </c>
       <c r="B265" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C265" t="s">
         <v>30</v>
@@ -24029,12 +24032,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="266" spans="1:27">
+    <row r="266" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>2015</v>
       </c>
       <c r="B266" t="s">
-        <v>279</v>
+        <v>550</v>
       </c>
       <c r="C266" t="s">
         <v>30</v>
@@ -24112,12 +24115,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="267" spans="1:27">
+    <row r="267" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>2015</v>
       </c>
       <c r="B267" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C267" t="s">
         <v>26</v>
@@ -24195,12 +24198,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="268" spans="1:27">
+    <row r="268" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>2015</v>
       </c>
       <c r="B268" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C268" t="s">
         <v>49</v>
@@ -24278,12 +24281,12 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="269" spans="1:27">
+    <row r="269" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>2015</v>
       </c>
       <c r="B269" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C269" t="s">
         <v>30</v>
@@ -24361,12 +24364,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="270" spans="1:27">
+    <row r="270" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>2015</v>
       </c>
       <c r="B270" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C270" t="s">
         <v>39</v>
@@ -24444,12 +24447,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:27">
+    <row r="271" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>2015</v>
       </c>
       <c r="B271" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24527,12 +24530,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="272" spans="1:27">
+    <row r="272" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>2015</v>
       </c>
       <c r="B272" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C272" t="s">
         <v>49</v>
@@ -24610,12 +24613,12 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="273" spans="1:27">
+    <row r="273" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>2015</v>
       </c>
       <c r="B273" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -24693,12 +24696,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="274" spans="1:27">
+    <row r="274" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>2015</v>
       </c>
       <c r="B274" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C274" t="s">
         <v>30</v>
@@ -24776,12 +24779,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="275" spans="1:27">
+    <row r="275" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>2015</v>
       </c>
       <c r="B275" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24859,12 +24862,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="276" spans="1:27">
+    <row r="276" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>2015</v>
       </c>
       <c r="B276" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C276" t="s">
         <v>30</v>
@@ -24942,12 +24945,12 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="277" spans="1:27">
+    <row r="277" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>2015</v>
       </c>
       <c r="B277" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C277" t="s">
         <v>30</v>
@@ -25025,12 +25028,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="278" spans="1:27">
+    <row r="278" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>2015</v>
       </c>
       <c r="B278" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25108,12 +25111,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="279" spans="1:27">
+    <row r="279" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>2015</v>
       </c>
       <c r="B279" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C279" t="s">
         <v>39</v>
@@ -25191,12 +25194,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="280" spans="1:27">
+    <row r="280" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>2015</v>
       </c>
       <c r="B280" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C280" t="s">
         <v>26</v>
@@ -25274,12 +25277,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="281" spans="1:27">
+    <row r="281" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>2015</v>
       </c>
       <c r="B281" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C281" t="s">
         <v>26</v>
@@ -25357,12 +25360,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="282" spans="1:27">
+    <row r="282" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>2015</v>
       </c>
       <c r="B282" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C282" t="s">
         <v>39</v>
@@ -25440,12 +25443,12 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="283" spans="1:27">
+    <row r="283" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>2015</v>
       </c>
       <c r="B283" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C283" t="s">
         <v>26</v>
@@ -25523,12 +25526,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="284" spans="1:27">
+    <row r="284" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>2015</v>
       </c>
       <c r="B284" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C284" t="s">
         <v>39</v>
@@ -25606,12 +25609,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="285" spans="1:27">
+    <row r="285" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>2015</v>
       </c>
       <c r="B285" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C285" t="s">
         <v>49</v>
@@ -25689,12 +25692,12 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="286" spans="1:27">
+    <row r="286" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>2015</v>
       </c>
       <c r="B286" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C286" t="s">
         <v>49</v>
@@ -25772,12 +25775,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="287" spans="1:27">
+    <row r="287" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>2015</v>
       </c>
       <c r="B287" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C287" t="s">
         <v>49</v>
@@ -25855,12 +25858,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="288" spans="1:27">
+    <row r="288" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>2015</v>
       </c>
       <c r="B288" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C288" t="s">
         <v>49</v>
@@ -25938,12 +25941,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="289" spans="1:27">
+    <row r="289" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>2015</v>
       </c>
       <c r="B289" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C289" t="s">
         <v>49</v>
@@ -26021,12 +26024,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:27">
+    <row r="290" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>2015</v>
       </c>
       <c r="B290" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C290" t="s">
         <v>30</v>
@@ -26104,12 +26107,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="291" spans="1:27">
+    <row r="291" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>2015</v>
       </c>
       <c r="B291" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C291" t="s">
         <v>39</v>
@@ -26187,12 +26190,12 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="292" spans="1:27">
+    <row r="292" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>2015</v>
       </c>
       <c r="B292" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C292" t="s">
         <v>30</v>
@@ -26270,12 +26273,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="293" spans="1:27">
+    <row r="293" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>2015</v>
       </c>
       <c r="B293" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C293" t="s">
         <v>26</v>
@@ -26353,12 +26356,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="294" spans="1:27">
+    <row r="294" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>2015</v>
       </c>
       <c r="B294" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C294" t="s">
         <v>39</v>
@@ -26436,12 +26439,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="295" spans="1:27">
+    <row r="295" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>2015</v>
       </c>
       <c r="B295" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26519,12 +26522,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="296" spans="1:27">
+    <row r="296" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>2015</v>
       </c>
       <c r="B296" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C296" t="s">
         <v>49</v>
@@ -26602,12 +26605,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="297" spans="1:27">
+    <row r="297" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>2015</v>
       </c>
       <c r="B297" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C297" t="s">
         <v>26</v>
@@ -26685,12 +26688,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="298" spans="1:27">
+    <row r="298" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>2015</v>
       </c>
       <c r="B298" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C298" t="s">
         <v>26</v>
@@ -26768,12 +26771,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="299" spans="1:27">
+    <row r="299" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>2015</v>
       </c>
       <c r="B299" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C299" t="s">
         <v>26</v>
@@ -26851,12 +26854,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="300" spans="1:27">
+    <row r="300" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>2015</v>
       </c>
       <c r="B300" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C300" t="s">
         <v>26</v>
@@ -26934,12 +26937,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="301" spans="1:27">
+    <row r="301" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>2015</v>
       </c>
       <c r="B301" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C301" t="s">
         <v>26</v>
@@ -27017,12 +27020,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="302" spans="1:27">
+    <row r="302" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>2015</v>
       </c>
       <c r="B302" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C302" t="s">
         <v>26</v>
@@ -27100,12 +27103,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:27">
+    <row r="303" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>2015</v>
       </c>
       <c r="B303" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C303" t="s">
         <v>26</v>
@@ -27183,12 +27186,12 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="304" spans="1:27">
+    <row r="304" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>2015</v>
       </c>
       <c r="B304" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C304" t="s">
         <v>39</v>
@@ -27266,12 +27269,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:27">
+    <row r="305" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>2015</v>
       </c>
       <c r="B305" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C305" t="s">
         <v>39</v>
@@ -27349,12 +27352,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="306" spans="1:27">
+    <row r="306" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>2015</v>
       </c>
       <c r="B306" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C306" t="s">
         <v>39</v>
@@ -27432,12 +27435,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="307" spans="1:27">
+    <row r="307" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>2015</v>
       </c>
       <c r="B307" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C307" t="s">
         <v>39</v>
@@ -27515,12 +27518,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:27">
+    <row r="308" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>2015</v>
       </c>
       <c r="B308" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C308" t="s">
         <v>26</v>
@@ -27598,12 +27601,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="309" spans="1:27">
+    <row r="309" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>2015</v>
       </c>
       <c r="B309" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27681,12 +27684,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="310" spans="1:27">
+    <row r="310" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>2015</v>
       </c>
       <c r="B310" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -27764,12 +27767,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="311" spans="1:27">
+    <row r="311" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>2015</v>
       </c>
       <c r="B311" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -27847,12 +27850,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="312" spans="1:27">
+    <row r="312" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>2015</v>
       </c>
       <c r="B312" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C312" t="s">
         <v>39</v>
@@ -27930,12 +27933,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="313" spans="1:27">
+    <row r="313" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>2015</v>
       </c>
       <c r="B313" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C313" t="s">
         <v>39</v>
@@ -28013,12 +28016,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="314" spans="1:27">
+    <row r="314" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>2015</v>
       </c>
       <c r="B314" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C314" t="s">
         <v>39</v>
@@ -28096,12 +28099,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="315" spans="1:27">
+    <row r="315" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>2015</v>
       </c>
       <c r="B315" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C315" t="s">
         <v>39</v>
@@ -28179,12 +28182,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="316" spans="1:27">
+    <row r="316" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>2015</v>
       </c>
       <c r="B316" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C316" t="s">
         <v>26</v>
@@ -28262,12 +28265,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="317" spans="1:27">
+    <row r="317" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>2015</v>
       </c>
       <c r="B317" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C317" t="s">
         <v>30</v>
@@ -28345,12 +28348,12 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="318" spans="1:27">
+    <row r="318" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>2015</v>
       </c>
       <c r="B318" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C318" t="s">
         <v>30</v>
@@ -28428,12 +28431,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="319" spans="1:27">
+    <row r="319" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>2015</v>
       </c>
       <c r="B319" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C319" t="s">
         <v>49</v>
@@ -28511,12 +28514,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:27">
+    <row r="320" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>2015</v>
       </c>
       <c r="B320" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C320" t="s">
         <v>30</v>
@@ -28594,12 +28597,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="321" spans="1:27">
+    <row r="321" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>2015</v>
       </c>
       <c r="B321" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C321" t="s">
         <v>30</v>
@@ -28677,12 +28680,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="322" spans="1:27">
+    <row r="322" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>2015</v>
       </c>
       <c r="B322" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C322" t="s">
         <v>30</v>
@@ -28760,12 +28763,12 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="323" spans="1:27">
+    <row r="323" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>2015</v>
       </c>
       <c r="B323" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C323" t="s">
         <v>30</v>
@@ -28843,12 +28846,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="324" spans="1:27">
+    <row r="324" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>2015</v>
       </c>
       <c r="B324" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -28926,12 +28929,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="325" spans="1:27">
+    <row r="325" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>2015</v>
       </c>
       <c r="B325" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C325" t="s">
         <v>26</v>
@@ -29009,12 +29012,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="326" spans="1:27">
+    <row r="326" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>2015</v>
       </c>
       <c r="B326" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C326" t="s">
         <v>39</v>
@@ -29092,12 +29095,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="327" spans="1:27">
+    <row r="327" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>2015</v>
       </c>
       <c r="B327" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C327" t="s">
         <v>28</v>
@@ -29175,12 +29178,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:27">
+    <row r="328" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>2015</v>
       </c>
       <c r="B328" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C328" t="s">
         <v>39</v>
@@ -29258,12 +29261,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="329" spans="1:27">
+    <row r="329" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>2015</v>
       </c>
       <c r="B329" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C329" t="s">
         <v>30</v>
@@ -29341,12 +29344,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:27">
+    <row r="330" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>2015</v>
       </c>
       <c r="B330" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C330" t="s">
         <v>63</v>
@@ -29424,12 +29427,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="331" spans="1:27">
+    <row r="331" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>2015</v>
       </c>
       <c r="B331" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C331" t="s">
         <v>49</v>
@@ -29507,12 +29510,12 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="332" spans="1:27">
+    <row r="332" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>2015</v>
       </c>
       <c r="B332" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -29590,12 +29593,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="333" spans="1:27">
+    <row r="333" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>2015</v>
       </c>
       <c r="B333" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -29673,12 +29676,12 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="334" spans="1:27">
+    <row r="334" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>2015</v>
       </c>
       <c r="B334" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C334" t="s">
         <v>30</v>
@@ -29756,12 +29759,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="335" spans="1:27">
+    <row r="335" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>2015</v>
       </c>
       <c r="B335" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C335" t="s">
         <v>30</v>
@@ -29839,12 +29842,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="336" spans="1:27">
+    <row r="336" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>2015</v>
       </c>
       <c r="B336" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -29922,12 +29925,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="337" spans="1:27">
+    <row r="337" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>2015</v>
       </c>
       <c r="B337" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C337" t="s">
         <v>26</v>
@@ -30005,12 +30008,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="338" spans="1:27">
+    <row r="338" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>2015</v>
       </c>
       <c r="B338" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C338" t="s">
         <v>49</v>
@@ -30088,12 +30091,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="339" spans="1:27">
+    <row r="339" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>2015</v>
       </c>
       <c r="B339" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C339" t="s">
         <v>30</v>
@@ -30171,12 +30174,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="340" spans="1:27">
+    <row r="340" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>2015</v>
       </c>
       <c r="B340" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C340" t="s">
         <v>49</v>
@@ -30254,12 +30257,12 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="341" spans="1:27">
+    <row r="341" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>2015</v>
       </c>
       <c r="B341" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C341" t="s">
         <v>49</v>
@@ -30337,12 +30340,12 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="342" spans="1:27">
+    <row r="342" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>2015</v>
       </c>
       <c r="B342" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C342" t="s">
         <v>28</v>
@@ -30420,12 +30423,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="343" spans="1:27">
+    <row r="343" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>2015</v>
       </c>
       <c r="B343" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
@@ -30503,12 +30506,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="344" spans="1:27">
+    <row r="344" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>2015</v>
       </c>
       <c r="B344" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C344" t="s">
         <v>28</v>
@@ -30586,12 +30589,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="345" spans="1:27">
+    <row r="345" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>2015</v>
       </c>
       <c r="B345" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -30669,12 +30672,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="346" spans="1:27">
+    <row r="346" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>2015</v>
       </c>
       <c r="B346" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C346" t="s">
         <v>26</v>
@@ -30752,12 +30755,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="347" spans="1:27">
+    <row r="347" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>2015</v>
       </c>
       <c r="B347" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -30835,12 +30838,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:27">
+    <row r="348" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>2015</v>
       </c>
       <c r="B348" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C348" t="s">
         <v>30</v>
@@ -30918,12 +30921,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="349" spans="1:27">
+    <row r="349" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>2015</v>
       </c>
       <c r="B349" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C349" t="s">
         <v>39</v>
@@ -31001,12 +31004,12 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="350" spans="1:27">
+    <row r="350" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>2015</v>
       </c>
       <c r="B350" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C350" t="s">
         <v>30</v>
@@ -31084,12 +31087,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="351" spans="1:27">
+    <row r="351" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>2015</v>
       </c>
       <c r="B351" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C351" t="s">
         <v>26</v>
@@ -31167,12 +31170,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="352" spans="1:27">
+    <row r="352" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>2015</v>
       </c>
       <c r="B352" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C352" t="s">
         <v>49</v>
@@ -31250,12 +31253,12 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="353" spans="1:27">
+    <row r="353" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>2015</v>
       </c>
       <c r="B353" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C353" t="s">
         <v>49</v>
@@ -31333,12 +31336,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="354" spans="1:27">
+    <row r="354" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>2015</v>
       </c>
       <c r="B354" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C354" t="s">
         <v>49</v>
@@ -31416,12 +31419,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="355" spans="1:27">
+    <row r="355" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>2015</v>
       </c>
       <c r="B355" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C355" t="s">
         <v>30</v>
@@ -31499,12 +31502,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="356" spans="1:27">
+    <row r="356" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>2015</v>
       </c>
       <c r="B356" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C356" t="s">
         <v>30</v>
@@ -31582,12 +31585,12 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="357" spans="1:27">
+    <row r="357" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>2015</v>
       </c>
       <c r="B357" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C357" t="s">
         <v>26</v>
@@ -31665,12 +31668,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="358" spans="1:27">
+    <row r="358" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>2015</v>
       </c>
       <c r="B358" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C358" t="s">
         <v>49</v>
@@ -31748,12 +31751,12 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="359" spans="1:27">
+    <row r="359" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>2015</v>
       </c>
       <c r="B359" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C359" t="s">
         <v>49</v>
@@ -31831,12 +31834,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:27">
+    <row r="360" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>2015</v>
       </c>
       <c r="B360" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C360" t="s">
         <v>49</v>
@@ -31914,12 +31917,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="361" spans="1:27">
+    <row r="361" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>2015</v>
       </c>
       <c r="B361" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C361" t="s">
         <v>49</v>
@@ -31997,12 +32000,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="362" spans="1:27">
+    <row r="362" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>2015</v>
       </c>
       <c r="B362" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C362" t="s">
         <v>30</v>
@@ -32080,12 +32083,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="363" spans="1:27">
+    <row r="363" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>2015</v>
       </c>
       <c r="B363" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C363" t="s">
         <v>28</v>
@@ -32163,12 +32166,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="364" spans="1:27">
+    <row r="364" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>2015</v>
       </c>
       <c r="B364" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C364" t="s">
         <v>39</v>
@@ -32246,12 +32249,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="365" spans="1:27">
+    <row r="365" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>2015</v>
       </c>
       <c r="B365" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C365" t="s">
         <v>49</v>
@@ -32329,12 +32332,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="366" spans="1:27">
+    <row r="366" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>2015</v>
       </c>
       <c r="B366" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C366" t="s">
         <v>39</v>
@@ -32412,12 +32415,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="367" spans="1:27">
+    <row r="367" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>2015</v>
       </c>
       <c r="B367" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C367" t="s">
         <v>26</v>
@@ -32495,12 +32498,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:27">
+    <row r="368" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>2015</v>
       </c>
       <c r="B368" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C368" t="s">
         <v>28</v>
@@ -32578,12 +32581,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:27">
+    <row r="369" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>2015</v>
       </c>
       <c r="B369" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C369" t="s">
         <v>28</v>
@@ -32661,12 +32664,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:27">
+    <row r="370" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>2015</v>
       </c>
       <c r="B370" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C370" t="s">
         <v>26</v>
@@ -32744,12 +32747,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="371" spans="1:27">
+    <row r="371" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>2015</v>
       </c>
       <c r="B371" t="s">
-        <v>369</v>
+        <v>551</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -32827,12 +32830,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="372" spans="1:27">
+    <row r="372" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>2015</v>
       </c>
       <c r="B372" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C372" t="s">
         <v>26</v>
@@ -32910,12 +32913,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="373" spans="1:27">
+    <row r="373" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>2015</v>
       </c>
       <c r="B373" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C373" t="s">
         <v>26</v>
@@ -32993,12 +32996,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:27">
+    <row r="374" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>2015</v>
       </c>
       <c r="B374" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C374" t="s">
         <v>49</v>
@@ -33076,12 +33079,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="375" spans="1:27">
+    <row r="375" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>2015</v>
       </c>
       <c r="B375" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33159,12 +33162,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="376" spans="1:27">
+    <row r="376" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>2015</v>
       </c>
       <c r="B376" t="s">
-        <v>374</v>
+        <v>552</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33242,12 +33245,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="377" spans="1:27">
+    <row r="377" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>2015</v>
       </c>
       <c r="B377" t="s">
-        <v>374</v>
+        <v>552</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -33325,12 +33328,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="378" spans="1:27">
+    <row r="378" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>2015</v>
       </c>
       <c r="B378" t="s">
-        <v>374</v>
+        <v>552</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -33408,12 +33411,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="379" spans="1:27">
+    <row r="379" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>2015</v>
       </c>
       <c r="B379" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C379" t="s">
         <v>39</v>
@@ -33491,12 +33494,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="380" spans="1:27">
+    <row r="380" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>2015</v>
       </c>
       <c r="B380" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C380" t="s">
         <v>26</v>
@@ -33574,12 +33577,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="381" spans="1:27">
+    <row r="381" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>2015</v>
       </c>
       <c r="B381" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C381" t="s">
         <v>30</v>
@@ -33657,12 +33660,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="382" spans="1:27">
+    <row r="382" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>2015</v>
       </c>
       <c r="B382" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C382" t="s">
         <v>30</v>
@@ -33740,12 +33743,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="383" spans="1:27">
+    <row r="383" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>2015</v>
       </c>
       <c r="B383" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C383" t="s">
         <v>30</v>
@@ -33823,12 +33826,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="384" spans="1:27">
+    <row r="384" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>2015</v>
       </c>
       <c r="B384" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C384" t="s">
         <v>28</v>
@@ -33906,12 +33909,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="385" spans="1:27">
+    <row r="385" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>2015</v>
       </c>
       <c r="B385" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C385" t="s">
         <v>49</v>
@@ -33989,12 +33992,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="386" spans="1:27">
+    <row r="386" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>2015</v>
       </c>
       <c r="B386" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C386" t="s">
         <v>26</v>
@@ -34072,12 +34075,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="387" spans="1:27">
+    <row r="387" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>2015</v>
       </c>
       <c r="B387" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C387" t="s">
         <v>28</v>
@@ -34155,12 +34158,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="388" spans="1:27">
+    <row r="388" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>2015</v>
       </c>
       <c r="B388" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C388" t="s">
         <v>49</v>
@@ -34238,12 +34241,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="389" spans="1:27">
+    <row r="389" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>2015</v>
       </c>
       <c r="B389" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C389" t="s">
         <v>39</v>
@@ -34321,12 +34324,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="390" spans="1:27">
+    <row r="390" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>2015</v>
       </c>
       <c r="B390" t="s">
-        <v>384</v>
+        <v>553</v>
       </c>
       <c r="C390" t="s">
         <v>28</v>
@@ -34404,12 +34407,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="391" spans="1:27">
+    <row r="391" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>2015</v>
       </c>
       <c r="B391" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C391" t="s">
         <v>49</v>
@@ -34487,12 +34490,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="392" spans="1:27">
+    <row r="392" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>2015</v>
       </c>
       <c r="B392" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C392" t="s">
         <v>49</v>
@@ -34570,12 +34573,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="393" spans="1:27">
+    <row r="393" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>2015</v>
       </c>
       <c r="B393" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C393" t="s">
         <v>49</v>
@@ -34653,12 +34656,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="394" spans="1:27">
+    <row r="394" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>2015</v>
       </c>
       <c r="B394" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C394" t="s">
         <v>39</v>
@@ -34736,12 +34739,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="395" spans="1:27">
+    <row r="395" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>2015</v>
       </c>
       <c r="B395" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C395" t="s">
         <v>39</v>
@@ -34819,12 +34822,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="396" spans="1:27">
+    <row r="396" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>2015</v>
       </c>
       <c r="B396" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C396" t="s">
         <v>26</v>
@@ -34902,12 +34905,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="397" spans="1:27">
+    <row r="397" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>2015</v>
       </c>
       <c r="B397" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C397" t="s">
         <v>26</v>
@@ -34985,12 +34988,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:27">
+    <row r="398" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>2015</v>
       </c>
       <c r="B398" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C398" t="s">
         <v>26</v>
@@ -35068,12 +35071,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="399" spans="1:27">
+    <row r="399" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>2015</v>
       </c>
       <c r="B399" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C399" t="s">
         <v>49</v>
@@ -35151,12 +35154,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="400" spans="1:27">
+    <row r="400" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>2015</v>
       </c>
       <c r="B400" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C400" t="s">
         <v>28</v>
@@ -35234,12 +35237,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="401" spans="1:27">
+    <row r="401" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>2015</v>
       </c>
       <c r="B401" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C401" t="s">
         <v>26</v>
@@ -35317,12 +35320,12 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="402" spans="1:27">
+    <row r="402" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>2015</v>
       </c>
       <c r="B402" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C402" t="s">
         <v>26</v>
@@ -35400,12 +35403,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="403" spans="1:27">
+    <row r="403" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>2015</v>
       </c>
       <c r="B403" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C403" t="s">
         <v>30</v>
@@ -35483,12 +35486,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="404" spans="1:27">
+    <row r="404" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>2015</v>
       </c>
       <c r="B404" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C404" t="s">
         <v>26</v>
@@ -35566,12 +35569,12 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="405" spans="1:27">
+    <row r="405" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>2015</v>
       </c>
       <c r="B405" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C405" t="s">
         <v>28</v>
@@ -35649,12 +35652,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="406" spans="1:27">
+    <row r="406" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>2015</v>
       </c>
       <c r="B406" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C406" t="s">
         <v>26</v>
@@ -35732,12 +35735,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:27">
+    <row r="407" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>2015</v>
       </c>
       <c r="B407" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C407" t="s">
         <v>49</v>
@@ -35815,12 +35818,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="408" spans="1:27">
+    <row r="408" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>2015</v>
       </c>
       <c r="B408" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C408" t="s">
         <v>26</v>
@@ -35898,12 +35901,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="409" spans="1:27">
+    <row r="409" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>2015</v>
       </c>
       <c r="B409" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C409" t="s">
         <v>26</v>
@@ -35981,12 +35984,12 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="410" spans="1:27">
+    <row r="410" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>2015</v>
       </c>
       <c r="B410" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C410" t="s">
         <v>28</v>
@@ -36064,12 +36067,12 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="411" spans="1:27">
+    <row r="411" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>2015</v>
       </c>
       <c r="B411" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C411" t="s">
         <v>26</v>
@@ -36147,12 +36150,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:27">
+    <row r="412" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>2015</v>
       </c>
       <c r="B412" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C412" t="s">
         <v>30</v>
@@ -36230,12 +36233,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="413" spans="1:27">
+    <row r="413" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>2015</v>
       </c>
       <c r="B413" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C413" t="s">
         <v>30</v>
@@ -36313,12 +36316,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:27">
+    <row r="414" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>2015</v>
       </c>
       <c r="B414" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C414" t="s">
         <v>30</v>
@@ -36396,12 +36399,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="415" spans="1:27">
+    <row r="415" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>2015</v>
       </c>
       <c r="B415" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C415" t="s">
         <v>28</v>
@@ -36479,12 +36482,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:27">
+    <row r="416" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>2015</v>
       </c>
       <c r="B416" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C416" t="s">
         <v>62</v>
@@ -36562,12 +36565,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:27">
+    <row r="417" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>2015</v>
       </c>
       <c r="B417" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C417" t="s">
         <v>49</v>
@@ -36645,12 +36648,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:27">
+    <row r="418" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>2015</v>
       </c>
       <c r="B418" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C418" t="s">
         <v>28</v>
@@ -36728,12 +36731,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:27">
+    <row r="419" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>2015</v>
       </c>
       <c r="B419" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C419" t="s">
         <v>26</v>
@@ -36811,12 +36814,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="420" spans="1:27">
+    <row r="420" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>2015</v>
       </c>
       <c r="B420" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C420" t="s">
         <v>49</v>
@@ -36894,12 +36897,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="421" spans="1:27">
+    <row r="421" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>2015</v>
       </c>
       <c r="B421" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C421" t="s">
         <v>28</v>
@@ -36977,12 +36980,12 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="422" spans="1:27">
+    <row r="422" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>2015</v>
       </c>
       <c r="B422" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C422" t="s">
         <v>28</v>
@@ -37060,12 +37063,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="423" spans="1:27">
+    <row r="423" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>2015</v>
       </c>
       <c r="B423" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C423" t="s">
         <v>28</v>
@@ -37143,12 +37146,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="424" spans="1:27">
+    <row r="424" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>2015</v>
       </c>
       <c r="B424" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C424" t="s">
         <v>49</v>
@@ -37226,12 +37229,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="425" spans="1:27">
+    <row r="425" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>2015</v>
       </c>
       <c r="B425" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C425" t="s">
         <v>49</v>
@@ -37309,12 +37312,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="426" spans="1:27">
+    <row r="426" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>2015</v>
       </c>
       <c r="B426" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C426" t="s">
         <v>49</v>
@@ -37392,12 +37395,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:27">
+    <row r="427" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>2015</v>
       </c>
       <c r="B427" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C427" t="s">
         <v>49</v>
@@ -37475,12 +37478,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="428" spans="1:27">
+    <row r="428" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>2015</v>
       </c>
       <c r="B428" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C428" t="s">
         <v>26</v>
@@ -37558,12 +37561,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="429" spans="1:27">
+    <row r="429" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>2015</v>
       </c>
       <c r="B429" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C429" t="s">
         <v>30</v>
@@ -37641,12 +37644,12 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="430" spans="1:27">
+    <row r="430" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>2015</v>
       </c>
       <c r="B430" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C430" t="s">
         <v>30</v>
@@ -37724,12 +37727,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="431" spans="1:27">
+    <row r="431" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>2015</v>
       </c>
       <c r="B431" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C431" t="s">
         <v>30</v>
@@ -37807,12 +37810,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:27">
+    <row r="432" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>2015</v>
       </c>
       <c r="B432" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C432" t="s">
         <v>64</v>
@@ -37890,12 +37893,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="433" spans="1:27">
+    <row r="433" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>2015</v>
       </c>
       <c r="B433" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C433" t="s">
         <v>39</v>
@@ -37973,12 +37976,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:27">
+    <row r="434" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>2015</v>
       </c>
       <c r="B434" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C434" t="s">
         <v>26</v>
@@ -38056,12 +38059,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="435" spans="1:27">
+    <row r="435" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>2015</v>
       </c>
       <c r="B435" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C435" t="s">
         <v>26</v>
@@ -38139,12 +38142,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="436" spans="1:27">
+    <row r="436" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>2015</v>
       </c>
       <c r="B436" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C436" t="s">
         <v>30</v>
@@ -38222,12 +38225,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="437" spans="1:27">
+    <row r="437" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>2015</v>
       </c>
       <c r="B437" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C437" t="s">
         <v>26</v>
@@ -38305,12 +38308,12 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="438" spans="1:27">
+    <row r="438" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>2015</v>
       </c>
       <c r="B438" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C438" t="s">
         <v>26</v>
@@ -38388,12 +38391,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="439" spans="1:27">
+    <row r="439" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>2015</v>
       </c>
       <c r="B439" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C439" t="s">
         <v>28</v>
@@ -38471,12 +38474,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="440" spans="1:27">
+    <row r="440" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>2015</v>
       </c>
       <c r="B440" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C440" t="s">
         <v>30</v>
@@ -38554,12 +38557,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="441" spans="1:27">
+    <row r="441" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>2015</v>
       </c>
       <c r="B441" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C441" t="s">
         <v>30</v>
@@ -38637,12 +38640,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="442" spans="1:27">
+    <row r="442" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>2015</v>
       </c>
       <c r="B442" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C442" t="s">
         <v>30</v>
@@ -38720,12 +38723,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="443" spans="1:27">
+    <row r="443" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>2015</v>
       </c>
       <c r="B443" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C443" t="s">
         <v>39</v>
@@ -38803,12 +38806,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="444" spans="1:27">
+    <row r="444" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>2015</v>
       </c>
       <c r="B444" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="C444" t="s">
         <v>49</v>
@@ -38886,12 +38889,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:27">
+    <row r="445" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>2015</v>
       </c>
       <c r="B445" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C445" t="s">
         <v>26</v>
@@ -38969,12 +38972,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="446" spans="1:27">
+    <row r="446" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>2015</v>
       </c>
       <c r="B446" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C446" t="s">
         <v>49</v>
@@ -39052,12 +39055,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:27">
+    <row r="447" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>2015</v>
       </c>
       <c r="B447" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C447" t="s">
         <v>39</v>
@@ -39135,12 +39138,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="448" spans="1:27">
+    <row r="448" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>2015</v>
       </c>
       <c r="B448" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C448" t="s">
         <v>26</v>
@@ -39218,12 +39221,12 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="449" spans="1:27">
+    <row r="449" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>2015</v>
       </c>
       <c r="B449" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C449" t="s">
         <v>49</v>
@@ -39301,12 +39304,12 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="450" spans="1:27">
+    <row r="450" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>2015</v>
       </c>
       <c r="B450" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C450" t="s">
         <v>26</v>
@@ -39384,12 +39387,12 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="451" spans="1:27">
+    <row r="451" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>2015</v>
       </c>
       <c r="B451" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C451" t="s">
         <v>26</v>
@@ -39467,12 +39470,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="452" spans="1:27">
+    <row r="452" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>2015</v>
       </c>
       <c r="B452" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C452" t="s">
         <v>26</v>
@@ -39550,12 +39553,12 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="453" spans="1:27">
+    <row r="453" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>2015</v>
       </c>
       <c r="B453" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C453" t="s">
         <v>49</v>
@@ -39633,12 +39636,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="454" spans="1:27">
+    <row r="454" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>2015</v>
       </c>
       <c r="B454" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C454" t="s">
         <v>30</v>
@@ -39716,12 +39719,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="455" spans="1:27">
+    <row r="455" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>2015</v>
       </c>
       <c r="B455" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C455" t="s">
         <v>30</v>
@@ -39799,12 +39802,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="456" spans="1:27">
+    <row r="456" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>2015</v>
       </c>
       <c r="B456" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C456" t="s">
         <v>30</v>
@@ -39882,12 +39885,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="457" spans="1:27">
+    <row r="457" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>2015</v>
       </c>
       <c r="B457" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C457" t="s">
         <v>30</v>
@@ -39965,12 +39968,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="458" spans="1:27">
+    <row r="458" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>2015</v>
       </c>
       <c r="B458" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C458" t="s">
         <v>39</v>
@@ -40048,12 +40051,12 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="459" spans="1:27">
+    <row r="459" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>2015</v>
       </c>
       <c r="B459" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C459" t="s">
         <v>30</v>
@@ -40131,12 +40134,12 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="460" spans="1:27">
+    <row r="460" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>2015</v>
       </c>
       <c r="B460" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C460" t="s">
         <v>30</v>
@@ -40214,12 +40217,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="461" spans="1:27">
+    <row r="461" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>2015</v>
       </c>
       <c r="B461" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C461" t="s">
         <v>30</v>
@@ -40297,12 +40300,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="462" spans="1:27">
+    <row r="462" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>2015</v>
       </c>
       <c r="B462" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C462" t="s">
         <v>30</v>
@@ -40380,12 +40383,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:27">
+    <row r="463" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>2015</v>
       </c>
       <c r="B463" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="C463" t="s">
         <v>65</v>
@@ -40463,12 +40466,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="464" spans="1:27">
+    <row r="464" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>2015</v>
       </c>
       <c r="B464" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -40546,12 +40549,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:27">
+    <row r="465" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>2015</v>
       </c>
       <c r="B465" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="C465" t="s">
         <v>39</v>
@@ -40629,12 +40632,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="466" spans="1:27">
+    <row r="466" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>2015</v>
       </c>
       <c r="B466" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C466" t="s">
         <v>39</v>
@@ -40712,12 +40715,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="467" spans="1:27">
+    <row r="467" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>2015</v>
       </c>
       <c r="B467" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="C467" t="s">
         <v>26</v>
@@ -40795,12 +40798,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="468" spans="1:27">
+    <row r="468" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>2015</v>
       </c>
       <c r="B468" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="C468" t="s">
         <v>26</v>
@@ -40878,12 +40881,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:27">
+    <row r="469" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>2015</v>
       </c>
       <c r="B469" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="C469" t="s">
         <v>26</v>
@@ -40961,12 +40964,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="470" spans="1:27">
+    <row r="470" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>2015</v>
       </c>
       <c r="B470" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C470" t="s">
         <v>49</v>
@@ -41044,12 +41047,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:27">
+    <row r="471" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>2015</v>
       </c>
       <c r="B471" t="s">
-        <v>440</v>
+        <v>554</v>
       </c>
       <c r="C471" t="s">
         <v>49</v>
@@ -41127,12 +41130,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="472" spans="1:27">
+    <row r="472" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>2015</v>
       </c>
       <c r="B472" t="s">
-        <v>440</v>
+        <v>554</v>
       </c>
       <c r="C472" t="s">
         <v>49</v>
@@ -41210,12 +41213,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="473" spans="1:27">
+    <row r="473" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>2015</v>
       </c>
       <c r="B473" t="s">
-        <v>440</v>
+        <v>554</v>
       </c>
       <c r="C473" t="s">
         <v>49</v>
@@ -41293,12 +41296,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="474" spans="1:27">
+    <row r="474" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>2015</v>
       </c>
       <c r="B474" t="s">
-        <v>440</v>
+        <v>554</v>
       </c>
       <c r="C474" t="s">
         <v>49</v>
@@ -41376,12 +41379,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="475" spans="1:27">
+    <row r="475" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>2015</v>
       </c>
       <c r="B475" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C475" t="s">
         <v>49</v>
@@ -41459,12 +41462,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:27">
+    <row r="476" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>2015</v>
       </c>
       <c r="B476" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="C476" t="s">
         <v>49</v>
@@ -41542,12 +41545,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="477" spans="1:27">
+    <row r="477" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>2015</v>
       </c>
       <c r="B477" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="C477" t="s">
         <v>49</v>
@@ -41625,12 +41628,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="478" spans="1:27">
+    <row r="478" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>2015</v>
       </c>
       <c r="B478" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="C478" t="s">
         <v>49</v>
@@ -41708,12 +41711,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="479" spans="1:27">
+    <row r="479" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>2015</v>
       </c>
       <c r="B479" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C479" t="s">
         <v>39</v>
@@ -41791,12 +41794,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="480" spans="1:27">
+    <row r="480" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>2015</v>
       </c>
       <c r="B480" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C480" t="s">
         <v>39</v>
@@ -41874,12 +41877,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:27">
+    <row r="481" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>2015</v>
       </c>
       <c r="B481" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C481" t="s">
         <v>39</v>
@@ -41957,12 +41960,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="482" spans="1:27">
+    <row r="482" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>2015</v>
       </c>
       <c r="B482" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C482" t="s">
         <v>39</v>
@@ -42040,12 +42043,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="483" spans="1:27">
+    <row r="483" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>2015</v>
       </c>
       <c r="B483" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C483" t="s">
         <v>30</v>
@@ -42123,12 +42126,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="484" spans="1:27">
+    <row r="484" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>2015</v>
       </c>
       <c r="B484" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C484" t="s">
         <v>26</v>
@@ -42206,12 +42209,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="485" spans="1:27">
+    <row r="485" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>2015</v>
       </c>
       <c r="B485" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C485" t="s">
         <v>26</v>
@@ -42289,12 +42292,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="486" spans="1:27">
+    <row r="486" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>2015</v>
       </c>
       <c r="B486" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C486" t="s">
         <v>26</v>
@@ -42372,12 +42375,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="487" spans="1:27">
+    <row r="487" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>2015</v>
       </c>
       <c r="B487" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C487" t="s">
         <v>26</v>
@@ -42455,12 +42458,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:27">
+    <row r="488" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>2015</v>
       </c>
       <c r="B488" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C488" t="s">
         <v>26</v>
@@ -42538,12 +42541,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="489" spans="1:27">
+    <row r="489" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>2015</v>
       </c>
       <c r="B489" t="s">
-        <v>448</v>
+        <v>555</v>
       </c>
       <c r="C489" t="s">
         <v>28</v>
@@ -42621,12 +42624,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="490" spans="1:27">
+    <row r="490" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>2015</v>
       </c>
       <c r="B490" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="C490" t="s">
         <v>28</v>
@@ -42704,12 +42707,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="491" spans="1:27">
+    <row r="491" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>2015</v>
       </c>
       <c r="B491" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C491" t="s">
         <v>28</v>
@@ -42787,12 +42790,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="492" spans="1:27">
+    <row r="492" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>2015</v>
       </c>
       <c r="B492" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C492" t="s">
         <v>49</v>
@@ -42870,12 +42873,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="493" spans="1:27">
+    <row r="493" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>2015</v>
       </c>
       <c r="B493" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C493" t="s">
         <v>63</v>
@@ -42953,12 +42956,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="494" spans="1:27">
+    <row r="494" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>2015</v>
       </c>
       <c r="B494" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C494" t="s">
         <v>28</v>
@@ -43036,12 +43039,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="495" spans="1:27">
+    <row r="495" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>2015</v>
       </c>
       <c r="B495" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C495" t="s">
         <v>49</v>
@@ -43119,12 +43122,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="496" spans="1:27">
+    <row r="496" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>2015</v>
       </c>
       <c r="B496" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C496" t="s">
         <v>28</v>
@@ -43202,12 +43205,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="497" spans="1:27">
+    <row r="497" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>2015</v>
       </c>
       <c r="B497" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="C497" t="s">
         <v>49</v>
@@ -43285,12 +43288,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="498" spans="1:27">
+    <row r="498" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>2015</v>
       </c>
       <c r="B498" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="C498" t="s">
         <v>66</v>
@@ -43368,12 +43371,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="499" spans="1:27">
+    <row r="499" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>2015</v>
       </c>
       <c r="B499" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="C499" t="s">
         <v>28</v>
@@ -43451,12 +43454,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="500" spans="1:27">
+    <row r="500" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>2015</v>
       </c>
       <c r="B500" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="C500" t="s">
         <v>39</v>
@@ -43534,12 +43537,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="501" spans="1:27">
+    <row r="501" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>2015</v>
       </c>
       <c r="B501" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C501" t="s">
         <v>49</v>
@@ -43617,12 +43620,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="502" spans="1:27">
+    <row r="502" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>2015</v>
       </c>
       <c r="B502" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C502" t="s">
         <v>49</v>
@@ -43700,12 +43703,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="503" spans="1:27">
+    <row r="503" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>2015</v>
       </c>
       <c r="B503" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C503" t="s">
         <v>49</v>
@@ -43783,12 +43786,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="504" spans="1:27">
+    <row r="504" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>2015</v>
       </c>
       <c r="B504" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C504" t="s">
         <v>26</v>
@@ -43866,12 +43869,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="505" spans="1:27">
+    <row r="505" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>2015</v>
       </c>
       <c r="B505" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C505" t="s">
         <v>26</v>
@@ -43949,12 +43952,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="506" spans="1:27">
+    <row r="506" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>2015</v>
       </c>
       <c r="B506" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C506" t="s">
         <v>26</v>
@@ -44032,12 +44035,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:27">
+    <row r="507" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>2015</v>
       </c>
       <c r="B507" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="C507" t="s">
         <v>49</v>
@@ -44115,12 +44118,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="508" spans="1:27">
+    <row r="508" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>2015</v>
       </c>
       <c r="B508" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="C508" t="s">
         <v>49</v>
@@ -44198,12 +44201,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="509" spans="1:27">
+    <row r="509" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>2015</v>
       </c>
       <c r="B509" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="C509" t="s">
         <v>49</v>
@@ -44281,12 +44284,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="510" spans="1:27">
+    <row r="510" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>2015</v>
       </c>
       <c r="B510" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="C510" t="s">
         <v>49</v>
@@ -44364,12 +44367,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="511" spans="1:27">
+    <row r="511" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>2015</v>
       </c>
       <c r="B511" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="C511" t="s">
         <v>39</v>
@@ -44447,12 +44450,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="512" spans="1:27">
+    <row r="512" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>2015</v>
       </c>
       <c r="B512" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C512" t="s">
         <v>49</v>
@@ -44530,12 +44533,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="513" spans="1:27">
+    <row r="513" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>2015</v>
       </c>
       <c r="B513" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="C513" t="s">
         <v>39</v>
@@ -44613,12 +44616,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="514" spans="1:27">
+    <row r="514" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>2015</v>
       </c>
       <c r="B514" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="C514" t="s">
         <v>28</v>
@@ -44696,12 +44699,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="515" spans="1:27">
+    <row r="515" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>2015</v>
       </c>
       <c r="B515" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C515" t="s">
         <v>30</v>
@@ -44779,12 +44782,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="516" spans="1:27">
+    <row r="516" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>2015</v>
       </c>
       <c r="B516" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C516" t="s">
         <v>39</v>
@@ -44862,12 +44865,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="517" spans="1:27">
+    <row r="517" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>2015</v>
       </c>
       <c r="B517" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C517" t="s">
         <v>39</v>
@@ -44945,12 +44948,12 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="518" spans="1:27">
+    <row r="518" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>2015</v>
       </c>
       <c r="B518" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="C518" t="s">
         <v>30</v>
@@ -45028,12 +45031,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="519" spans="1:27">
+    <row r="519" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>2015</v>
       </c>
       <c r="B519" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="C519" t="s">
         <v>49</v>
@@ -45111,12 +45114,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="520" spans="1:27">
+    <row r="520" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>2015</v>
       </c>
       <c r="B520" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="C520" t="s">
         <v>26</v>
@@ -45194,12 +45197,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="521" spans="1:27">
+    <row r="521" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>2015</v>
       </c>
       <c r="B521" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C521" t="s">
         <v>26</v>
@@ -45277,12 +45280,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="522" spans="1:27">
+    <row r="522" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>2015</v>
       </c>
       <c r="B522" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C522" t="s">
         <v>39</v>
@@ -45360,12 +45363,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="523" spans="1:27">
+    <row r="523" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>2015</v>
       </c>
       <c r="B523" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="C523" t="s">
         <v>30</v>
@@ -45443,12 +45446,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="524" spans="1:27">
+    <row r="524" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>2015</v>
       </c>
       <c r="B524" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="C524" t="s">
         <v>49</v>
@@ -45526,12 +45529,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="525" spans="1:27">
+    <row r="525" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>2015</v>
       </c>
       <c r="B525" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="C525" t="s">
         <v>49</v>
@@ -45609,12 +45612,12 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="526" spans="1:27">
+    <row r="526" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>2015</v>
       </c>
       <c r="B526" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="C526" t="s">
         <v>49</v>
@@ -45692,12 +45695,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="527" spans="1:27">
+    <row r="527" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>2015</v>
       </c>
       <c r="B527" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="C527" t="s">
         <v>28</v>
@@ -45775,12 +45778,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="528" spans="1:27">
+    <row r="528" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>2015</v>
       </c>
       <c r="B528" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="C528" t="s">
         <v>28</v>
@@ -45858,12 +45861,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:27">
+    <row r="529" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>2015</v>
       </c>
       <c r="B529" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="C529" t="s">
         <v>28</v>
@@ -45941,12 +45944,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="530" spans="1:27">
+    <row r="530" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>2015</v>
       </c>
       <c r="B530" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="C530" t="s">
         <v>28</v>
@@ -46024,12 +46027,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="531" spans="1:27">
+    <row r="531" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>2015</v>
       </c>
       <c r="B531" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="C531" t="s">
         <v>28</v>
@@ -46107,12 +46110,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="532" spans="1:27">
+    <row r="532" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>2015</v>
       </c>
       <c r="B532" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="C532" t="s">
         <v>28</v>
@@ -46190,12 +46193,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="533" spans="1:27">
+    <row r="533" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>2015</v>
       </c>
       <c r="B533" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="C533" t="s">
         <v>28</v>
@@ -46273,12 +46276,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="534" spans="1:27">
+    <row r="534" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>2015</v>
       </c>
       <c r="B534" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="C534" t="s">
         <v>30</v>
@@ -46356,12 +46359,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="535" spans="1:27">
+    <row r="535" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>2015</v>
       </c>
       <c r="B535" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="C535" t="s">
         <v>39</v>
@@ -46439,12 +46442,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="536" spans="1:27">
+    <row r="536" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>2015</v>
       </c>
       <c r="B536" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="C536" t="s">
         <v>39</v>
@@ -46522,12 +46525,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="537" spans="1:27">
+    <row r="537" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>2015</v>
       </c>
       <c r="B537" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="C537" t="s">
         <v>39</v>
@@ -46605,12 +46608,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="538" spans="1:27">
+    <row r="538" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>2015</v>
       </c>
       <c r="B538" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="C538" t="s">
         <v>49</v>
@@ -46688,12 +46691,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="539" spans="1:27">
+    <row r="539" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>2015</v>
       </c>
       <c r="B539" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="C539" t="s">
         <v>49</v>
@@ -46771,12 +46774,12 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="540" spans="1:27">
+    <row r="540" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>2015</v>
       </c>
       <c r="B540" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="C540" t="s">
         <v>26</v>
@@ -46854,12 +46857,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="541" spans="1:27">
+    <row r="541" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>2015</v>
       </c>
       <c r="B541" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="C541" t="s">
         <v>49</v>
@@ -46937,12 +46940,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="542" spans="1:27">
+    <row r="542" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>2015</v>
       </c>
       <c r="B542" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="C542" t="s">
         <v>49</v>
@@ -47020,12 +47023,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="543" spans="1:27">
+    <row r="543" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>2015</v>
       </c>
       <c r="B543" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="C543" t="s">
         <v>49</v>
@@ -47103,12 +47106,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="544" spans="1:27">
+    <row r="544" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>2015</v>
       </c>
       <c r="B544" t="s">
-        <v>482</v>
+        <v>556</v>
       </c>
       <c r="C544" t="s">
         <v>28</v>
@@ -47186,12 +47189,12 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="545" spans="1:27">
+    <row r="545" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>2015</v>
       </c>
       <c r="B545" t="s">
-        <v>482</v>
+        <v>556</v>
       </c>
       <c r="C545" t="s">
         <v>28</v>
@@ -47269,12 +47272,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="546" spans="1:27">
+    <row r="546" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>2015</v>
       </c>
       <c r="B546" t="s">
-        <v>482</v>
+        <v>556</v>
       </c>
       <c r="C546" t="s">
         <v>28</v>
@@ -47352,12 +47355,12 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="547" spans="1:27">
+    <row r="547" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>2015</v>
       </c>
       <c r="B547" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="C547" t="s">
         <v>30</v>
@@ -47435,12 +47438,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="548" spans="1:27">
+    <row r="548" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>2015</v>
       </c>
       <c r="B548" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="C548" t="s">
         <v>26</v>
@@ -47518,12 +47521,12 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="549" spans="1:27">
+    <row r="549" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>2015</v>
       </c>
       <c r="B549" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="C549" t="s">
         <v>26</v>
@@ -47601,12 +47604,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="550" spans="1:27">
+    <row r="550" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>2015</v>
       </c>
       <c r="B550" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="C550" t="s">
         <v>26</v>
@@ -47684,12 +47687,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:27">
+    <row r="551" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>2015</v>
       </c>
       <c r="B551" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="C551" t="s">
         <v>49</v>
@@ -47767,12 +47770,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="552" spans="1:27">
+    <row r="552" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>2015</v>
       </c>
       <c r="B552" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="C552" t="s">
         <v>49</v>
@@ -47850,12 +47853,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="553" spans="1:27">
+    <row r="553" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>2015</v>
       </c>
       <c r="B553" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="C553" t="s">
         <v>49</v>
@@ -47933,12 +47936,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:27">
+    <row r="554" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>2015</v>
       </c>
       <c r="B554" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="C554" t="s">
         <v>39</v>
@@ -48016,12 +48019,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="555" spans="1:27">
+    <row r="555" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>2015</v>
       </c>
       <c r="B555" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="C555" t="s">
         <v>30</v>
@@ -48099,12 +48102,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="556" spans="1:27">
+    <row r="556" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>2015</v>
       </c>
       <c r="B556" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="C556" t="s">
         <v>30</v>
@@ -48182,12 +48185,12 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="557" spans="1:27">
+    <row r="557" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>2015</v>
       </c>
       <c r="B557" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="C557" t="s">
         <v>28</v>
@@ -48265,12 +48268,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="558" spans="1:27">
+    <row r="558" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>2015</v>
       </c>
       <c r="B558" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="C558" t="s">
         <v>28</v>
@@ -48348,12 +48351,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="559" spans="1:27">
+    <row r="559" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>2015</v>
       </c>
       <c r="B559" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="C559" t="s">
         <v>30</v>
@@ -48431,12 +48434,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:27">
+    <row r="560" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>2015</v>
       </c>
       <c r="B560" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="C560" t="s">
         <v>49</v>
@@ -48514,12 +48517,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="561" spans="1:27">
+    <row r="561" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>2015</v>
       </c>
       <c r="B561" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="C561" t="s">
         <v>26</v>
@@ -48597,12 +48600,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="562" spans="1:27">
+    <row r="562" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>2015</v>
       </c>
       <c r="B562" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="C562" t="s">
         <v>26</v>
@@ -48680,12 +48683,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="563" spans="1:27">
+    <row r="563" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>2015</v>
       </c>
       <c r="B563" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="C563" t="s">
         <v>26</v>
@@ -48763,12 +48766,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="564" spans="1:27">
+    <row r="564" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>2015</v>
       </c>
       <c r="B564" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="C564" t="s">
         <v>26</v>
@@ -48846,12 +48849,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:27">
+    <row r="565" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>2015</v>
       </c>
       <c r="B565" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="C565" t="s">
         <v>49</v>
@@ -48929,12 +48932,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="566" spans="1:27">
+    <row r="566" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>2015</v>
       </c>
       <c r="B566" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="C566" t="s">
         <v>26</v>
@@ -49012,12 +49015,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="567" spans="1:27">
+    <row r="567" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>2015</v>
       </c>
       <c r="B567" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="C567" t="s">
         <v>39</v>
@@ -49095,12 +49098,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="568" spans="1:27">
+    <row r="568" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>2015</v>
       </c>
       <c r="B568" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="C568" t="s">
         <v>49</v>
@@ -49178,12 +49181,12 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="569" spans="1:27">
+    <row r="569" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>2015</v>
       </c>
       <c r="B569" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="C569" t="s">
         <v>26</v>
@@ -49261,12 +49264,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="570" spans="1:27">
+    <row r="570" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>2015</v>
       </c>
       <c r="B570" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="C570" t="s">
         <v>49</v>
@@ -49344,12 +49347,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="571" spans="1:27">
+    <row r="571" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>2015</v>
       </c>
       <c r="B571" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="C571" t="s">
         <v>28</v>
@@ -49427,12 +49430,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="572" spans="1:27">
+    <row r="572" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>2015</v>
       </c>
       <c r="B572" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C572" t="s">
         <v>28</v>
@@ -49510,12 +49513,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="573" spans="1:27">
+    <row r="573" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>2015</v>
       </c>
       <c r="B573" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="C573" t="s">
         <v>49</v>
@@ -49593,12 +49596,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="574" spans="1:27">
+    <row r="574" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>2015</v>
       </c>
       <c r="B574" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="C574" t="s">
         <v>49</v>
@@ -49676,12 +49679,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:27">
+    <row r="575" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>2015</v>
       </c>
       <c r="B575" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="C575" t="s">
         <v>49</v>
@@ -49759,12 +49762,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="576" spans="1:27">
+    <row r="576" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>2015</v>
       </c>
       <c r="B576" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="C576" t="s">
         <v>67</v>
@@ -49842,12 +49845,12 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="577" spans="1:27">
+    <row r="577" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>2015</v>
       </c>
       <c r="B577" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="C577" t="s">
         <v>39</v>
@@ -49925,12 +49928,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="578" spans="1:27">
+    <row r="578" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>2015</v>
       </c>
       <c r="B578" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="C578" t="s">
         <v>26</v>
@@ -50008,12 +50011,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="579" spans="1:27">
+    <row r="579" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>2015</v>
       </c>
       <c r="B579" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="C579" t="s">
         <v>26</v>
@@ -50091,12 +50094,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="580" spans="1:27">
+    <row r="580" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>2015</v>
       </c>
       <c r="B580" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="C580" t="s">
         <v>26</v>
@@ -50174,12 +50177,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:27">
+    <row r="581" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>2015</v>
       </c>
       <c r="B581" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="C581" t="s">
         <v>28</v>
@@ -50257,12 +50260,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:27">
+    <row r="582" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>2015</v>
       </c>
       <c r="B582" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="C582" t="s">
         <v>26</v>
@@ -50340,12 +50343,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="583" spans="1:27">
+    <row r="583" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>2015</v>
       </c>
       <c r="B583" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="C583" t="s">
         <v>28</v>
@@ -50423,12 +50426,12 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="584" spans="1:27">
+    <row r="584" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>2015</v>
       </c>
       <c r="B584" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="C584" t="s">
         <v>26</v>
@@ -50506,12 +50509,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="585" spans="1:27">
+    <row r="585" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>2015</v>
       </c>
       <c r="B585" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="C585" t="s">
         <v>28</v>
@@ -50589,12 +50592,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="586" spans="1:27">
+    <row r="586" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>2015</v>
       </c>
       <c r="B586" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="C586" t="s">
         <v>28</v>
@@ -50672,12 +50675,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:27">
+    <row r="587" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>2015</v>
       </c>
       <c r="B587" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="C587" t="s">
         <v>28</v>
@@ -50755,12 +50758,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="588" spans="1:27">
+    <row r="588" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>2015</v>
       </c>
       <c r="B588" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="C588" t="s">
         <v>26</v>
@@ -50838,12 +50841,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="589" spans="1:27">
+    <row r="589" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>2015</v>
       </c>
       <c r="B589" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="C589" t="s">
         <v>26</v>
@@ -50921,12 +50924,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="590" spans="1:27">
+    <row r="590" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>2015</v>
       </c>
       <c r="B590" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="C590" t="s">
         <v>26</v>
@@ -51004,12 +51007,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="591" spans="1:27">
+    <row r="591" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>2015</v>
       </c>
       <c r="B591" t="s">
-        <v>513</v>
+        <v>557</v>
       </c>
       <c r="C591" t="s">
         <v>39</v>
@@ -51087,12 +51090,12 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="592" spans="1:27">
+    <row r="592" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>2015</v>
       </c>
       <c r="B592" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="C592" t="s">
         <v>30</v>
@@ -51158,12 +51161,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:27">
+    <row r="593" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>2015</v>
       </c>
       <c r="B593" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="C593" t="s">
         <v>39</v>
@@ -51241,12 +51244,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="594" spans="1:27">
+    <row r="594" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>2015</v>
       </c>
       <c r="B594" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="C594" t="s">
         <v>28</v>
@@ -51324,12 +51327,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="595" spans="1:27">
+    <row r="595" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>2015</v>
       </c>
       <c r="B595" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="C595" t="s">
         <v>26</v>
@@ -51407,12 +51410,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="596" spans="1:27">
+    <row r="596" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>2015</v>
       </c>
       <c r="B596" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="C596" t="s">
         <v>49</v>
@@ -51490,12 +51493,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="597" spans="1:27">
+    <row r="597" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>2015</v>
       </c>
       <c r="B597" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="C597" t="s">
         <v>30</v>
@@ -51573,12 +51576,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="598" spans="1:27">
+    <row r="598" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>2015</v>
       </c>
       <c r="B598" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="C598" t="s">
         <v>30</v>
@@ -51656,12 +51659,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="599" spans="1:27">
+    <row r="599" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>2015</v>
       </c>
       <c r="B599" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="C599" t="s">
         <v>49</v>
@@ -51739,12 +51742,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="600" spans="1:27">
+    <row r="600" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>2015</v>
       </c>
       <c r="B600" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="C600" t="s">
         <v>26</v>
@@ -51822,12 +51825,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:27">
+    <row r="601" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>2015</v>
       </c>
       <c r="B601" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="C601" t="s">
         <v>26</v>
@@ -51905,12 +51908,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="602" spans="1:27">
+    <row r="602" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>2015</v>
       </c>
       <c r="B602" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="C602" t="s">
         <v>30</v>
@@ -51988,12 +51991,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="603" spans="1:27">
+    <row r="603" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>2015</v>
       </c>
       <c r="B603" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="C603" t="s">
         <v>28</v>
@@ -52071,12 +52074,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="604" spans="1:27">
+    <row r="604" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <v>2015</v>
       </c>
       <c r="B604" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C604" t="s">
         <v>28</v>
@@ -52154,12 +52157,12 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="605" spans="1:27">
+    <row r="605" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>2015</v>
       </c>
       <c r="B605" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C605" t="s">
         <v>28</v>
@@ -52237,12 +52240,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="606" spans="1:27">
+    <row r="606" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <v>2015</v>
       </c>
       <c r="B606" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C606" t="s">
         <v>28</v>
@@ -52320,12 +52323,12 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="607" spans="1:27">
+    <row r="607" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <v>2015</v>
       </c>
       <c r="B607" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="C607" t="s">
         <v>39</v>
@@ -52403,12 +52406,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="608" spans="1:27">
+    <row r="608" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
         <v>2015</v>
       </c>
       <c r="B608" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="C608" t="s">
         <v>49</v>
@@ -52486,12 +52489,12 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="609" spans="1:27">
+    <row r="609" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>2015</v>
       </c>
       <c r="B609" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="C609" t="s">
         <v>49</v>
@@ -52569,12 +52572,12 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="610" spans="1:27">
+    <row r="610" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <v>2015</v>
       </c>
       <c r="B610" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="C610" t="s">
         <v>39</v>
@@ -52652,12 +52655,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="611" spans="1:27">
+    <row r="611" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <v>2015</v>
       </c>
       <c r="B611" t="s">
-        <v>531</v>
+        <v>558</v>
       </c>
       <c r="C611" t="s">
         <v>39</v>
@@ -52735,12 +52738,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:27">
+    <row r="612" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <v>2015</v>
       </c>
       <c r="B612" t="s">
-        <v>532</v>
+        <v>559</v>
       </c>
       <c r="C612" t="s">
         <v>49</v>
@@ -52818,12 +52821,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="613" spans="1:27">
+    <row r="613" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
         <v>2015</v>
       </c>
       <c r="B613" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="C613" t="s">
         <v>26</v>
@@ -52901,12 +52904,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:27">
+    <row r="614" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
         <v>2015</v>
       </c>
       <c r="B614" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="C614" t="s">
         <v>39</v>
@@ -52984,12 +52987,12 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="615" spans="1:27">
+    <row r="615" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <v>2015</v>
       </c>
       <c r="B615" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="C615" t="s">
         <v>39</v>
@@ -53067,12 +53070,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="616" spans="1:27">
+    <row r="616" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
         <v>2015</v>
       </c>
       <c r="B616" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="C616" t="s">
         <v>26</v>
@@ -53150,12 +53153,12 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="617" spans="1:27">
+    <row r="617" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
         <v>2015</v>
       </c>
       <c r="B617" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="C617" t="s">
         <v>49</v>
@@ -53233,12 +53236,12 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="618" spans="1:27">
+    <row r="618" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
         <v>2015</v>
       </c>
       <c r="B618" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="C618" t="s">
         <v>30</v>
@@ -53316,12 +53319,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="619" spans="1:27">
+    <row r="619" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
         <v>2015</v>
       </c>
       <c r="B619" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="C619" t="s">
         <v>26</v>
@@ -53399,12 +53402,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="620" spans="1:27">
+    <row r="620" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
         <v>2015</v>
       </c>
       <c r="B620" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="C620" t="s">
         <v>39</v>
@@ -53482,12 +53485,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="621" spans="1:27">
+    <row r="621" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
         <v>2015</v>
       </c>
       <c r="B621" t="s">
-        <v>541</v>
+        <v>560</v>
       </c>
       <c r="C621" t="s">
         <v>28</v>
@@ -53565,12 +53568,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="622" spans="1:27">
+    <row r="622" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
         <v>2015</v>
       </c>
       <c r="B622" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="C622" t="s">
         <v>49</v>
@@ -53648,12 +53651,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="623" spans="1:27">
+    <row r="623" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
         <v>2015</v>
       </c>
       <c r="B623" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="C623" t="s">
         <v>26</v>
@@ -53731,12 +53734,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="624" spans="1:27">
+    <row r="624" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
         <v>2015</v>
       </c>
       <c r="B624" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="C624" t="s">
         <v>28</v>
@@ -53814,12 +53817,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="625" spans="1:27">
+    <row r="625" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <v>2015</v>
       </c>
       <c r="B625" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="C625" t="s">
         <v>28</v>
@@ -53897,12 +53900,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:27">
+    <row r="626" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
         <v>2015</v>
       </c>
       <c r="B626" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="C626" t="s">
         <v>28</v>
@@ -53980,12 +53983,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="627" spans="1:27">
+    <row r="627" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
         <v>2015</v>
       </c>
       <c r="B627" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="C627" t="s">
         <v>28</v>
@@ -54063,12 +54066,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="628" spans="1:27">
+    <row r="628" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
         <v>2015</v>
       </c>
       <c r="B628" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="C628" t="s">
         <v>26</v>
@@ -54146,12 +54149,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="629" spans="1:27">
+    <row r="629" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
         <v>2015</v>
       </c>
       <c r="B629" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="C629" t="s">
         <v>49</v>
@@ -54229,12 +54232,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="630" spans="1:27">
+    <row r="630" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
         <v>2015</v>
       </c>
       <c r="B630" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="C630" t="s">
         <v>49</v>
@@ -54312,12 +54315,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="631" spans="1:27">
+    <row r="631" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
         <v>2015</v>
       </c>
       <c r="B631" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="C631" t="s">
         <v>49</v>
@@ -54395,12 +54398,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="632" spans="1:27">
+    <row r="632" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
         <v>2015</v>
       </c>
       <c r="B632" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="C632" t="s">
         <v>39</v>
@@ -54478,12 +54481,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:27">
+    <row r="633" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
         <v>2015</v>
       </c>
       <c r="B633" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="C633" t="s">
         <v>39</v>
@@ -54561,12 +54564,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="634" spans="1:27">
+    <row r="634" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
         <v>2015</v>
       </c>
       <c r="B634" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="C634" t="s">
         <v>39</v>
@@ -54644,12 +54647,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="635" spans="1:27">
+    <row r="635" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
         <v>2015</v>
       </c>
       <c r="B635" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="C635" t="s">
         <v>39</v>
@@ -54727,12 +54730,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="636" spans="1:27">
+    <row r="636" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
         <v>2015</v>
       </c>
       <c r="B636" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="C636" t="s">
         <v>30</v>
@@ -54810,12 +54813,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="637" spans="1:27">
+    <row r="637" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
         <v>2015</v>
       </c>
       <c r="B637" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="C637" t="s">
         <v>49</v>
@@ -54893,12 +54896,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="638" spans="1:27">
+    <row r="638" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
         <v>2015</v>
       </c>
       <c r="B638" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="C638" t="s">
         <v>49</v>
@@ -54976,12 +54979,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="639" spans="1:27">
+    <row r="639" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
         <v>2015</v>
       </c>
       <c r="B639" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="C639" t="s">
         <v>49</v>
@@ -55059,12 +55062,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="640" spans="1:27">
+    <row r="640" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
         <v>2015</v>
       </c>
       <c r="B640" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="C640" t="s">
         <v>26</v>
@@ -55142,12 +55145,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="641" spans="1:27">
+    <row r="641" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
         <v>2015</v>
       </c>
       <c r="B641" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="C641" t="s">
         <v>26</v>
@@ -55225,12 +55228,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="642" spans="1:27">
+    <row r="642" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
         <v>2015</v>
       </c>
       <c r="B642" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="C642" t="s">
         <v>26</v>
@@ -55308,12 +55311,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:27">
+    <row r="643" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
         <v>2015</v>
       </c>
       <c r="B643" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="C643" t="s">
         <v>26</v>
@@ -55391,12 +55394,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="644" spans="1:27">
+    <row r="644" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
         <v>2015</v>
       </c>
       <c r="B644" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="C644" t="s">
         <v>39</v>
@@ -55474,12 +55477,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="645" spans="1:27">
+    <row r="645" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
         <v>2015</v>
       </c>
       <c r="B645" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="C645" t="s">
         <v>49</v>
@@ -55557,12 +55560,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="646" spans="1:27">
+    <row r="646" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
         <v>2015</v>
       </c>
       <c r="B646" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="C646" t="s">
         <v>28</v>
@@ -55640,12 +55643,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="647" spans="1:27">
+    <row r="647" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
         <v>2015</v>
       </c>
       <c r="B647" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="C647" t="s">
         <v>28</v>
@@ -55723,12 +55726,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="648" spans="1:27">
+    <row r="648" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
         <v>2015</v>
       </c>
       <c r="B648" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="C648" t="s">
         <v>26</v>
@@ -55806,12 +55809,12 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="649" spans="1:27">
+    <row r="649" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
         <v>2015</v>
       </c>
       <c r="B649" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="C649" t="s">
         <v>26</v>
@@ -55889,12 +55892,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="650" spans="1:27">
+    <row r="650" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
         <v>2015</v>
       </c>
       <c r="B650" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="C650" t="s">
         <v>26</v>
@@ -55972,12 +55975,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="651" spans="1:27">
+    <row r="651" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
         <v>2015</v>
       </c>
       <c r="B651" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="C651" t="s">
         <v>30</v>
@@ -56055,12 +56058,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="652" spans="1:27">
+    <row r="652" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
         <v>2015</v>
       </c>
       <c r="B652" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="C652" t="s">
         <v>30</v>
